--- a/data/158/METI/ITIA/old/ksme.xlsx
+++ b/data/158/METI/ITIA/old/ksme.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{852E05E8-8793-4F4A-B942-14C68903AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6630"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{CBCB9402-7060-4FE4-B25A-1CD468D8B47C}"/>
   </bookViews>
   <sheets>
     <sheet name="ITA" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1737,7 +1747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1815,7 +1825,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1827,7 +1837,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1874,6 +1884,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1909,6 +1936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2060,22 +2104,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFADD9D-372B-4269-AFB8-58FB98BF6462}">
+  <dimension ref="A1:DH290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="109" width="12.625" customWidth="1"/>
+    <col min="1" max="112" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -2397,8 +2441,17 @@
       <c r="DE2">
         <v>2021001010</v>
       </c>
+      <c r="DF2">
+        <v>2021001111</v>
+      </c>
+      <c r="DG2">
+        <v>2021001212</v>
+      </c>
+      <c r="DH2">
+        <v>2022000101</v>
+      </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2726,8 +2779,17 @@
       <c r="DE3">
         <v>202110</v>
       </c>
+      <c r="DF3">
+        <v>202111</v>
+      </c>
+      <c r="DG3">
+        <v>202112</v>
+      </c>
+      <c r="DH3">
+        <v>202201</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3053,10 +3115,19 @@
         <v>96</v>
       </c>
       <c r="DE4">
-        <v>97.4</v>
+        <v>97.7</v>
+      </c>
+      <c r="DF4">
+        <v>98.5</v>
+      </c>
+      <c r="DG4">
+        <v>98.6</v>
+      </c>
+      <c r="DH4">
+        <v>97.9</v>
       </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3382,10 +3453,19 @@
         <v>96.3</v>
       </c>
       <c r="DE5">
-        <v>99.9</v>
+        <v>100.1</v>
+      </c>
+      <c r="DF5">
+        <v>100</v>
+      </c>
+      <c r="DG5">
+        <v>100.8</v>
+      </c>
+      <c r="DH5">
+        <v>104.1</v>
       </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3713,8 +3793,17 @@
       <c r="DE6">
         <v>97.6</v>
       </c>
+      <c r="DF6">
+        <v>97</v>
+      </c>
+      <c r="DG6">
+        <v>97.8</v>
+      </c>
+      <c r="DH6">
+        <v>102.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4040,10 +4129,19 @@
         <v>103.9</v>
       </c>
       <c r="DE7">
-        <v>109.9</v>
+        <v>110.6</v>
+      </c>
+      <c r="DF7">
+        <v>114.9</v>
+      </c>
+      <c r="DG7">
+        <v>115.3</v>
+      </c>
+      <c r="DH7">
+        <v>116.5</v>
       </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4369,10 +4467,19 @@
         <v>81.3</v>
       </c>
       <c r="DE8">
-        <v>88.3</v>
+        <v>109.4</v>
+      </c>
+      <c r="DF8">
+        <v>105.7</v>
+      </c>
+      <c r="DG8">
+        <v>103.8</v>
+      </c>
+      <c r="DH8">
+        <v>105.1</v>
       </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4700,8 +4807,17 @@
       <c r="DE9">
         <v>100.5</v>
       </c>
+      <c r="DF9">
+        <v>99.8</v>
+      </c>
+      <c r="DG9">
+        <v>99.4</v>
+      </c>
+      <c r="DH9">
+        <v>100.4</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5027,10 +5143,19 @@
         <v>100.8</v>
       </c>
       <c r="DE10">
+        <v>104.8</v>
+      </c>
+      <c r="DF10">
+        <v>103.5</v>
+      </c>
+      <c r="DG10">
+        <v>105.1</v>
+      </c>
+      <c r="DH10">
         <v>105.3</v>
       </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5350,16 +5475,25 @@
         <v>104.5</v>
       </c>
       <c r="DC11">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="DD11">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="DE11">
-        <v>107.4</v>
+        <v>106.1</v>
+      </c>
+      <c r="DF11">
+        <v>103.6</v>
+      </c>
+      <c r="DG11">
+        <v>107.7</v>
+      </c>
+      <c r="DH11">
+        <v>106.3</v>
       </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5685,10 +5819,19 @@
         <v>91.7</v>
       </c>
       <c r="DE12">
-        <v>91.9</v>
+        <v>92.3</v>
+      </c>
+      <c r="DF12">
+        <v>92.7</v>
+      </c>
+      <c r="DG12">
+        <v>93.9</v>
+      </c>
+      <c r="DH12">
+        <v>93.2</v>
       </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6008,16 +6151,25 @@
         <v>106.7</v>
       </c>
       <c r="DC13">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="DD13">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="DE13">
         <v>114.6</v>
       </c>
+      <c r="DF13">
+        <v>112.5</v>
+      </c>
+      <c r="DG13">
+        <v>109.7</v>
+      </c>
+      <c r="DH13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -6337,7 +6489,7 @@
         <v>105.6</v>
       </c>
       <c r="DC14">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="DD14">
         <v>99.3</v>
@@ -6345,8 +6497,17 @@
       <c r="DE14">
         <v>112.4</v>
       </c>
+      <c r="DF14">
+        <v>113.2</v>
+      </c>
+      <c r="DG14">
+        <v>113.7</v>
+      </c>
+      <c r="DH14">
+        <v>115.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -6666,16 +6827,25 @@
         <v>95.8</v>
       </c>
       <c r="DC15">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="DD15">
-        <v>92.6</v>
+        <v>92.8</v>
       </c>
       <c r="DE15">
         <v>102.4</v>
       </c>
+      <c r="DF15">
+        <v>100.5</v>
+      </c>
+      <c r="DG15">
+        <v>99.4</v>
+      </c>
+      <c r="DH15">
+        <v>106.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -7003,8 +7173,17 @@
       <c r="DE16">
         <v>146.80000000000001</v>
       </c>
+      <c r="DF16">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="DG16">
+        <v>168.1</v>
+      </c>
+      <c r="DH16">
+        <v>150.30000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -7332,8 +7511,17 @@
       <c r="DE17">
         <v>215.5</v>
       </c>
+      <c r="DF17">
+        <v>225.9</v>
+      </c>
+      <c r="DG17">
+        <v>255</v>
+      </c>
+      <c r="DH17">
+        <v>233.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -7661,8 +7849,17 @@
       <c r="DE18">
         <v>112.9</v>
       </c>
+      <c r="DF18">
+        <v>122.4</v>
+      </c>
+      <c r="DG18">
+        <v>137.9</v>
+      </c>
+      <c r="DH18">
+        <v>112.3</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -7990,8 +8187,17 @@
       <c r="DE19">
         <v>117.6</v>
       </c>
+      <c r="DF19">
+        <v>110.7</v>
+      </c>
+      <c r="DG19">
+        <v>102.5</v>
+      </c>
+      <c r="DH19">
+        <v>114</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -8319,8 +8525,17 @@
       <c r="DE20">
         <v>112.9</v>
       </c>
+      <c r="DF20">
+        <v>114.6</v>
+      </c>
+      <c r="DG20">
+        <v>113.3</v>
+      </c>
+      <c r="DH20">
+        <v>109.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -8646,10 +8861,19 @@
         <v>97.5</v>
       </c>
       <c r="DE21">
-        <v>120.4</v>
+        <v>120.5</v>
+      </c>
+      <c r="DF21">
+        <v>110.4</v>
+      </c>
+      <c r="DG21">
+        <v>99.4</v>
+      </c>
+      <c r="DH21">
+        <v>115.7</v>
       </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8972,13 +9196,22 @@
         <v>126.5</v>
       </c>
       <c r="DD22">
-        <v>130</v>
+        <v>129.9</v>
       </c>
       <c r="DE22">
-        <v>126</v>
+        <v>125.8</v>
+      </c>
+      <c r="DF22">
+        <v>130.5</v>
+      </c>
+      <c r="DG22">
+        <v>148.5</v>
+      </c>
+      <c r="DH22">
+        <v>127.6</v>
       </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -9301,13 +9534,22 @@
         <v>136.6</v>
       </c>
       <c r="DD23">
-        <v>142.6</v>
+        <v>142.4</v>
       </c>
       <c r="DE23">
-        <v>138.9</v>
+        <v>138.30000000000001</v>
+      </c>
+      <c r="DF23">
+        <v>146</v>
+      </c>
+      <c r="DG23">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="DH23">
+        <v>139.1</v>
       </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -9627,16 +9869,25 @@
         <v>122.9</v>
       </c>
       <c r="DC24">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="DD24">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="DE24">
         <v>114.2</v>
       </c>
+      <c r="DF24">
+        <v>99.5</v>
+      </c>
+      <c r="DG24">
+        <v>124</v>
+      </c>
+      <c r="DH24">
+        <v>106.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -9956,16 +10207,25 @@
         <v>145.80000000000001</v>
       </c>
       <c r="DC25">
-        <v>143.9</v>
+        <v>144.1</v>
       </c>
       <c r="DD25">
-        <v>149.4</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="DE25">
         <v>148.9</v>
       </c>
+      <c r="DF25">
+        <v>142</v>
+      </c>
+      <c r="DG25">
+        <v>159</v>
+      </c>
+      <c r="DH25">
+        <v>140.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -10291,10 +10551,19 @@
         <v>74.5</v>
       </c>
       <c r="DE26">
-        <v>75</v>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="DF26">
+        <v>76.5</v>
+      </c>
+      <c r="DG26">
+        <v>76.7</v>
+      </c>
+      <c r="DH26">
+        <v>74.2</v>
       </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -10622,8 +10891,17 @@
       <c r="DE27">
         <v>82</v>
       </c>
+      <c r="DF27">
+        <v>82.8</v>
+      </c>
+      <c r="DG27">
+        <v>84</v>
+      </c>
+      <c r="DH27">
+        <v>81.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -10951,8 +11229,17 @@
       <c r="DE28">
         <v>60.4</v>
       </c>
+      <c r="DF28">
+        <v>51.4</v>
+      </c>
+      <c r="DG28">
+        <v>62.9</v>
+      </c>
+      <c r="DH28">
+        <v>41.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -11280,8 +11567,17 @@
       <c r="DE29">
         <v>72.099999999999994</v>
       </c>
+      <c r="DF29">
+        <v>89.9</v>
+      </c>
+      <c r="DG29">
+        <v>88.8</v>
+      </c>
+      <c r="DH29">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -11607,10 +11903,19 @@
         <v>93.1</v>
       </c>
       <c r="DE30">
-        <v>92.6</v>
+        <v>92.7</v>
+      </c>
+      <c r="DF30">
+        <v>92</v>
+      </c>
+      <c r="DG30">
+        <v>89.4</v>
+      </c>
+      <c r="DH30">
+        <v>89.4</v>
       </c>
     </row>
-    <row r="31" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -11938,8 +12243,17 @@
       <c r="DE31">
         <v>84.4</v>
       </c>
+      <c r="DF31">
+        <v>75.2</v>
+      </c>
+      <c r="DG31">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="DH31">
+        <v>54.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -12267,8 +12581,17 @@
       <c r="DE32">
         <v>89.9</v>
       </c>
+      <c r="DF32">
+        <v>82.3</v>
+      </c>
+      <c r="DG32">
+        <v>79</v>
+      </c>
+      <c r="DH32">
+        <v>49.3</v>
+      </c>
     </row>
-    <row r="33" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -12596,8 +12919,17 @@
       <c r="DE33">
         <v>74.400000000000006</v>
       </c>
+      <c r="DF33">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="DG33">
+        <v>74.5</v>
+      </c>
+      <c r="DH33">
+        <v>70.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -12923,10 +13255,19 @@
         <v>72.400000000000006</v>
       </c>
       <c r="DE34">
-        <v>71.8</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="DF34">
+        <v>71.5</v>
+      </c>
+      <c r="DG34">
+        <v>71.3</v>
+      </c>
+      <c r="DH34">
+        <v>70.5</v>
       </c>
     </row>
-    <row r="35" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -13254,8 +13595,17 @@
       <c r="DE35">
         <v>70.400000000000006</v>
       </c>
+      <c r="DF35">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="DG35">
+        <v>68.5</v>
+      </c>
+      <c r="DH35">
+        <v>70.099999999999994</v>
+      </c>
     </row>
-    <row r="36" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -13583,8 +13933,17 @@
       <c r="DE36">
         <v>51.1</v>
       </c>
+      <c r="DF36">
+        <v>54.5</v>
+      </c>
+      <c r="DG36">
+        <v>50.1</v>
+      </c>
+      <c r="DH36">
+        <v>58.1</v>
+      </c>
     </row>
-    <row r="37" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -13912,8 +14271,17 @@
       <c r="DE37">
         <v>57.5</v>
       </c>
+      <c r="DF37">
+        <v>56.8</v>
+      </c>
+      <c r="DG37">
+        <v>57.8</v>
+      </c>
+      <c r="DH37">
+        <v>56.8</v>
+      </c>
     </row>
-    <row r="38" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -14241,8 +14609,17 @@
       <c r="DE38">
         <v>76.900000000000006</v>
       </c>
+      <c r="DF38">
+        <v>79.3</v>
+      </c>
+      <c r="DG38">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="DH38">
+        <v>76.7</v>
+      </c>
     </row>
-    <row r="39" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -14568,10 +14945,19 @@
         <v>90.7</v>
       </c>
       <c r="DE39">
-        <v>92.1</v>
+        <v>92.3</v>
+      </c>
+      <c r="DF39">
+        <v>93.8</v>
+      </c>
+      <c r="DG39">
+        <v>94.1</v>
+      </c>
+      <c r="DH39">
+        <v>94.8</v>
       </c>
     </row>
-    <row r="40" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -14891,16 +15277,25 @@
         <v>90</v>
       </c>
       <c r="DC40">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="DD40">
         <v>91</v>
       </c>
       <c r="DE40">
-        <v>92.6</v>
+        <v>92.8</v>
+      </c>
+      <c r="DF40">
+        <v>94.3</v>
+      </c>
+      <c r="DG40">
+        <v>95.1</v>
+      </c>
+      <c r="DH40">
+        <v>94.9</v>
       </c>
     </row>
-    <row r="41" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -15226,10 +15621,19 @@
         <v>73.7</v>
       </c>
       <c r="DE41">
-        <v>77.599999999999994</v>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="DF41">
+        <v>83.1</v>
+      </c>
+      <c r="DG41">
+        <v>85.5</v>
+      </c>
+      <c r="DH41">
+        <v>77.7</v>
       </c>
     </row>
-    <row r="42" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -15555,10 +15959,19 @@
         <v>73.900000000000006</v>
       </c>
       <c r="DE42">
-        <v>77.599999999999994</v>
+        <v>78.8</v>
+      </c>
+      <c r="DF42">
+        <v>82.9</v>
+      </c>
+      <c r="DG42">
+        <v>86</v>
+      </c>
+      <c r="DH42">
+        <v>77.7</v>
       </c>
     </row>
-    <row r="43" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -15884,10 +16297,19 @@
         <v>72.900000000000006</v>
       </c>
       <c r="DE43">
-        <v>74.3</v>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="DF43">
+        <v>82.1</v>
+      </c>
+      <c r="DG43">
+        <v>83.7</v>
+      </c>
+      <c r="DH43">
+        <v>74.8</v>
       </c>
     </row>
-    <row r="44" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -16213,10 +16635,19 @@
         <v>74.599999999999994</v>
       </c>
       <c r="DE44">
-        <v>83.4</v>
+        <v>81</v>
+      </c>
+      <c r="DF44">
+        <v>84.6</v>
+      </c>
+      <c r="DG44">
+        <v>88.6</v>
+      </c>
+      <c r="DH44">
+        <v>83.2</v>
       </c>
     </row>
-    <row r="45" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -16544,8 +16975,17 @@
       <c r="DE45">
         <v>87.3</v>
       </c>
+      <c r="DF45">
+        <v>86.7</v>
+      </c>
+      <c r="DG45">
+        <v>89.1</v>
+      </c>
+      <c r="DH45">
+        <v>89.4</v>
+      </c>
     </row>
-    <row r="46" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -16871,10 +17311,19 @@
         <v>70.400000000000006</v>
       </c>
       <c r="DE46">
-        <v>77.5</v>
+        <v>80.5</v>
+      </c>
+      <c r="DF46">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="DG46">
+        <v>83.1</v>
+      </c>
+      <c r="DH46">
+        <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -17200,10 +17649,19 @@
         <v>86.8</v>
       </c>
       <c r="DE47">
-        <v>98.6</v>
+        <v>89.3</v>
+      </c>
+      <c r="DF47">
+        <v>89.5</v>
+      </c>
+      <c r="DG47">
+        <v>91.1</v>
+      </c>
+      <c r="DH47">
+        <v>87.7</v>
       </c>
     </row>
-    <row r="48" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -17529,10 +17987,19 @@
         <v>57.3</v>
       </c>
       <c r="DE48">
-        <v>58.8</v>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="DF48">
+        <v>73.3</v>
+      </c>
+      <c r="DG48">
+        <v>77.2</v>
+      </c>
+      <c r="DH48">
+        <v>67.2</v>
       </c>
     </row>
-    <row r="49" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -17858,10 +18325,19 @@
         <v>104.1</v>
       </c>
       <c r="DE49">
-        <v>104.7</v>
+        <v>104</v>
+      </c>
+      <c r="DF49">
+        <v>103.8</v>
+      </c>
+      <c r="DG49">
+        <v>102.8</v>
+      </c>
+      <c r="DH49">
+        <v>112.2</v>
       </c>
     </row>
-    <row r="50" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -18187,10 +18663,19 @@
         <v>100.9</v>
       </c>
       <c r="DE50">
-        <v>100.4</v>
+        <v>99.7</v>
+      </c>
+      <c r="DF50">
+        <v>100.7</v>
+      </c>
+      <c r="DG50">
+        <v>99</v>
+      </c>
+      <c r="DH50">
+        <v>109.3</v>
       </c>
     </row>
-    <row r="51" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -18516,10 +19001,19 @@
         <v>138</v>
       </c>
       <c r="DE51">
-        <v>128.69999999999999</v>
+        <v>128.4</v>
+      </c>
+      <c r="DF51">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="DG51">
+        <v>132.1</v>
+      </c>
+      <c r="DH51">
+        <v>137.9</v>
       </c>
     </row>
-    <row r="52" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -18842,13 +19336,22 @@
         <v>89.1</v>
       </c>
       <c r="DD52">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="DE52">
-        <v>90.4</v>
+        <v>90.9</v>
+      </c>
+      <c r="DF52">
+        <v>89.3</v>
+      </c>
+      <c r="DG52">
+        <v>89.2</v>
+      </c>
+      <c r="DH52">
+        <v>91.1</v>
       </c>
     </row>
-    <row r="53" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -19176,8 +19679,17 @@
       <c r="DE53">
         <v>70.7</v>
       </c>
+      <c r="DF53">
+        <v>71.5</v>
+      </c>
+      <c r="DG53">
+        <v>88</v>
+      </c>
+      <c r="DH53">
+        <v>80.7</v>
+      </c>
     </row>
-    <row r="54" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -19500,13 +20012,22 @@
         <v>91.6</v>
       </c>
       <c r="DD54">
-        <v>90.6</v>
+        <v>90.8</v>
       </c>
       <c r="DE54">
-        <v>92.4</v>
+        <v>92.9</v>
+      </c>
+      <c r="DF54">
+        <v>90</v>
+      </c>
+      <c r="DG54">
+        <v>88.9</v>
+      </c>
+      <c r="DH54">
+        <v>91.9</v>
       </c>
     </row>
-    <row r="55" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -19834,8 +20355,17 @@
       <c r="DE55">
         <v>92</v>
       </c>
+      <c r="DF55">
+        <v>90.5</v>
+      </c>
+      <c r="DG55">
+        <v>88.7</v>
+      </c>
+      <c r="DH55">
+        <v>90.8</v>
+      </c>
     </row>
-    <row r="56" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -20158,13 +20688,22 @@
         <v>92.6</v>
       </c>
       <c r="DD56">
-        <v>90.7</v>
+        <v>91.1</v>
       </c>
       <c r="DE56">
-        <v>90.6</v>
+        <v>91.9</v>
+      </c>
+      <c r="DF56">
+        <v>89.4</v>
+      </c>
+      <c r="DG56">
+        <v>91.2</v>
+      </c>
+      <c r="DH56">
+        <v>92.3</v>
       </c>
     </row>
-    <row r="57" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -20490,10 +21029,19 @@
         <v>37.200000000000003</v>
       </c>
       <c r="DE57">
-        <v>46</v>
+        <v>47.6</v>
+      </c>
+      <c r="DF57">
+        <v>56.4</v>
+      </c>
+      <c r="DG57">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="DH57">
+        <v>49.7</v>
       </c>
     </row>
-    <row r="58" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -20819,10 +21367,19 @@
         <v>27.2</v>
       </c>
       <c r="DE58">
-        <v>36.9</v>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="DF58">
+        <v>48.4</v>
+      </c>
+      <c r="DG58">
+        <v>56.4</v>
+      </c>
+      <c r="DH58">
+        <v>39.9</v>
       </c>
     </row>
-    <row r="59" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -21148,10 +21705,19 @@
         <v>8.4</v>
       </c>
       <c r="DE59">
-        <v>8</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DF59">
+        <v>10</v>
+      </c>
+      <c r="DG59">
+        <v>14.5</v>
+      </c>
+      <c r="DH59">
+        <v>11.7</v>
       </c>
     </row>
-    <row r="60" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -21477,10 +22043,19 @@
         <v>37.700000000000003</v>
       </c>
       <c r="DE60">
-        <v>54.1</v>
+        <v>57.1</v>
+      </c>
+      <c r="DF60">
+        <v>70.8</v>
+      </c>
+      <c r="DG60">
+        <v>84.2</v>
+      </c>
+      <c r="DH60">
+        <v>60.2</v>
       </c>
     </row>
-    <row r="61" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -21808,8 +22383,17 @@
       <c r="DE61">
         <v>102.5</v>
       </c>
+      <c r="DF61">
+        <v>99.3</v>
+      </c>
+      <c r="DG61">
+        <v>103.8</v>
+      </c>
+      <c r="DH61">
+        <v>109.4</v>
+      </c>
     </row>
-    <row r="62" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -22137,8 +22721,17 @@
       <c r="DE62">
         <v>116.4</v>
       </c>
+      <c r="DF62">
+        <v>113.6</v>
+      </c>
+      <c r="DG62">
+        <v>118.2</v>
+      </c>
+      <c r="DH62">
+        <v>117</v>
+      </c>
     </row>
-    <row r="63" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -22464,10 +23057,19 @@
         <v>48.2</v>
       </c>
       <c r="DE63">
-        <v>48.7</v>
+        <v>48.6</v>
+      </c>
+      <c r="DF63">
+        <v>54</v>
+      </c>
+      <c r="DG63">
+        <v>58.6</v>
+      </c>
+      <c r="DH63">
+        <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -22787,16 +23389,25 @@
         <v>102.2</v>
       </c>
       <c r="DC64">
-        <v>103.2</v>
+        <v>102.3</v>
       </c>
       <c r="DD64">
-        <v>103.2</v>
+        <v>102.6</v>
       </c>
       <c r="DE64">
-        <v>103.9</v>
+        <v>101.6</v>
+      </c>
+      <c r="DF64">
+        <v>103.6</v>
+      </c>
+      <c r="DG64">
+        <v>102.3</v>
+      </c>
+      <c r="DH64">
+        <v>102.6</v>
       </c>
     </row>
-    <row r="65" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -23116,16 +23727,25 @@
         <v>103.2</v>
       </c>
       <c r="DC65">
-        <v>104.4</v>
+        <v>103.2</v>
       </c>
       <c r="DD65">
-        <v>104.2</v>
+        <v>103.5</v>
       </c>
       <c r="DE65">
-        <v>105</v>
+        <v>102.3</v>
+      </c>
+      <c r="DF65">
+        <v>104.6</v>
+      </c>
+      <c r="DG65">
+        <v>103</v>
+      </c>
+      <c r="DH65">
+        <v>102.8</v>
       </c>
     </row>
-    <row r="66" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -23451,10 +24071,19 @@
         <v>99.3</v>
       </c>
       <c r="DE66">
-        <v>98.8</v>
+        <v>98.7</v>
+      </c>
+      <c r="DF66">
+        <v>99.8</v>
+      </c>
+      <c r="DG66">
+        <v>99.2</v>
+      </c>
+      <c r="DH66">
+        <v>100.8</v>
       </c>
     </row>
-    <row r="67" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -23782,8 +24411,17 @@
       <c r="DE67">
         <v>94.1</v>
       </c>
+      <c r="DF67">
+        <v>95.4</v>
+      </c>
+      <c r="DG67">
+        <v>96.7</v>
+      </c>
+      <c r="DH67">
+        <v>93.7</v>
+      </c>
     </row>
-    <row r="68" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -24109,10 +24747,19 @@
         <v>90.9</v>
       </c>
       <c r="DE68">
-        <v>91.5</v>
+        <v>91.8</v>
+      </c>
+      <c r="DF68">
+        <v>90.5</v>
+      </c>
+      <c r="DG68">
+        <v>88.2</v>
+      </c>
+      <c r="DH68">
+        <v>90.8</v>
       </c>
     </row>
-    <row r="69" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -24435,13 +25082,22 @@
         <v>104.6</v>
       </c>
       <c r="DD69">
+        <v>103.1</v>
+      </c>
+      <c r="DE69">
         <v>103</v>
       </c>
-      <c r="DE69">
-        <v>103.6</v>
+      <c r="DF69">
+        <v>102.4</v>
+      </c>
+      <c r="DG69">
+        <v>101.5</v>
+      </c>
+      <c r="DH69">
+        <v>110.2</v>
       </c>
     </row>
-    <row r="70" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -24769,8 +25425,17 @@
       <c r="DE70">
         <v>92.5</v>
       </c>
+      <c r="DF70">
+        <v>95.2</v>
+      </c>
+      <c r="DG70">
+        <v>97.3</v>
+      </c>
+      <c r="DH70">
+        <v>91.7</v>
+      </c>
     </row>
-    <row r="71" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -25098,8 +25763,17 @@
       <c r="DE71">
         <v>99.3</v>
       </c>
+      <c r="DF71">
+        <v>101.9</v>
+      </c>
+      <c r="DG71">
+        <v>103.8</v>
+      </c>
+      <c r="DH71">
+        <v>96.9</v>
+      </c>
     </row>
-    <row r="72" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -25427,8 +26101,17 @@
       <c r="DE72">
         <v>58.5</v>
       </c>
+      <c r="DF72">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="DG72">
+        <v>67.7</v>
+      </c>
+      <c r="DH72">
+        <v>65.2</v>
+      </c>
     </row>
-    <row r="73" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -25756,8 +26439,17 @@
       <c r="DE73">
         <v>91.6</v>
       </c>
+      <c r="DF73">
+        <v>88.5</v>
+      </c>
+      <c r="DG73">
+        <v>77</v>
+      </c>
+      <c r="DH73">
+        <v>90</v>
+      </c>
     </row>
-    <row r="74" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -26083,10 +26775,19 @@
         <v>70.2</v>
       </c>
       <c r="DE74">
-        <v>74.5</v>
+        <v>76.3</v>
+      </c>
+      <c r="DF74">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="DG74">
+        <v>82.7</v>
+      </c>
+      <c r="DH74">
+        <v>75.3</v>
       </c>
     </row>
-    <row r="75" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>147</v>
       </c>
@@ -26409,13 +27110,22 @@
         <v>104.6</v>
       </c>
       <c r="DD75">
+        <v>103.1</v>
+      </c>
+      <c r="DE75">
         <v>103</v>
       </c>
-      <c r="DE75">
-        <v>103.6</v>
+      <c r="DF75">
+        <v>102.4</v>
+      </c>
+      <c r="DG75">
+        <v>101.5</v>
+      </c>
+      <c r="DH75">
+        <v>110.2</v>
       </c>
     </row>
-    <row r="76" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -26743,8 +27453,17 @@
       <c r="DE76">
         <v>90.8</v>
       </c>
+      <c r="DF76">
+        <v>90.9</v>
+      </c>
+      <c r="DG76">
+        <v>90.4</v>
+      </c>
+      <c r="DH76">
+        <v>91.9</v>
+      </c>
     </row>
-    <row r="77" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -27067,13 +27786,22 @@
         <v>68.900000000000006</v>
       </c>
       <c r="DD77">
-        <v>63</v>
+        <v>62.9</v>
       </c>
       <c r="DE77">
-        <v>69</v>
+        <v>68.5</v>
+      </c>
+      <c r="DF77">
+        <v>68.8</v>
+      </c>
+      <c r="DG77">
+        <v>67.7</v>
+      </c>
+      <c r="DH77">
+        <v>67.3</v>
       </c>
     </row>
-    <row r="78" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -27399,10 +28127,19 @@
         <v>51.3</v>
       </c>
       <c r="DE78">
-        <v>53.3</v>
+        <v>52.8</v>
+      </c>
+      <c r="DF78">
+        <v>53.8</v>
+      </c>
+      <c r="DG78">
+        <v>54.4</v>
+      </c>
+      <c r="DH78">
+        <v>50.1</v>
       </c>
     </row>
-    <row r="79" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -27722,16 +28459,25 @@
         <v>65.2</v>
       </c>
       <c r="DC79">
-        <v>65.3</v>
+        <v>65.2</v>
       </c>
       <c r="DD79">
         <v>61.6</v>
       </c>
       <c r="DE79">
-        <v>62.7</v>
+        <v>63.1</v>
+      </c>
+      <c r="DF79">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="DG79">
+        <v>62.1</v>
+      </c>
+      <c r="DH79">
+        <v>64.5</v>
       </c>
     </row>
-    <row r="80" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -28054,13 +28800,22 @@
         <v>47.7</v>
       </c>
       <c r="DD80">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="DE80">
-        <v>49.8</v>
+        <v>49.2</v>
+      </c>
+      <c r="DF80">
+        <v>52.6</v>
+      </c>
+      <c r="DG80">
+        <v>51.6</v>
+      </c>
+      <c r="DH80">
+        <v>49.1</v>
       </c>
     </row>
-    <row r="81" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -28386,10 +29141,19 @@
         <v>95.8</v>
       </c>
       <c r="DE81">
-        <v>96.5</v>
+        <v>96.8</v>
+      </c>
+      <c r="DF81">
+        <v>98.8</v>
+      </c>
+      <c r="DG81">
+        <v>98.9</v>
+      </c>
+      <c r="DH81">
+        <v>95.1</v>
       </c>
     </row>
-    <row r="82" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -28715,10 +29479,19 @@
         <v>91</v>
       </c>
       <c r="DE82">
-        <v>89.3</v>
+        <v>89.7</v>
+      </c>
+      <c r="DF82">
+        <v>94.3</v>
+      </c>
+      <c r="DG82">
+        <v>94.5</v>
+      </c>
+      <c r="DH82">
+        <v>88.2</v>
       </c>
     </row>
-    <row r="83" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -29044,10 +29817,19 @@
         <v>98.5</v>
       </c>
       <c r="DE83">
+        <v>101.8</v>
+      </c>
+      <c r="DF83">
         <v>101.6</v>
       </c>
+      <c r="DG83">
+        <v>101.7</v>
+      </c>
+      <c r="DH83">
+        <v>99.3</v>
+      </c>
     </row>
-    <row r="84" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -29370,13 +30152,22 @@
         <v>82.2</v>
       </c>
       <c r="DD84">
-        <v>81.3</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="DE84">
-        <v>77.3</v>
+        <v>76.7</v>
+      </c>
+      <c r="DF84">
+        <v>76.5</v>
+      </c>
+      <c r="DG84">
+        <v>75.8</v>
+      </c>
+      <c r="DH84">
+        <v>77.2</v>
       </c>
     </row>
-    <row r="85" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -29699,13 +30490,22 @@
         <v>86.8</v>
       </c>
       <c r="DD85">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="DE85">
-        <v>81.099999999999994</v>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="DF85">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="DG85">
+        <v>77.2</v>
+      </c>
+      <c r="DH85">
+        <v>76.7</v>
       </c>
     </row>
-    <row r="86" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -30028,13 +30828,22 @@
         <v>83.8</v>
       </c>
       <c r="DD86">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DE86">
-        <v>79.900000000000006</v>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="DF86">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="DG86">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="DH86">
+        <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -30357,13 +31166,22 @@
         <v>75</v>
       </c>
       <c r="DD87">
-        <v>77.099999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="DE87">
         <v>73.099999999999994</v>
       </c>
+      <c r="DF87">
+        <v>72.2</v>
+      </c>
+      <c r="DG87">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="DH87">
+        <v>74.8</v>
+      </c>
     </row>
-    <row r="88" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -30686,13 +31504,22 @@
         <v>93.3</v>
       </c>
       <c r="DD88">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="DE88">
-        <v>88.2</v>
+        <v>88.5</v>
+      </c>
+      <c r="DF88">
+        <v>91</v>
+      </c>
+      <c r="DG88">
+        <v>89.7</v>
+      </c>
+      <c r="DH88">
+        <v>94.5</v>
       </c>
     </row>
-    <row r="89" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -31015,13 +31842,22 @@
         <v>73.400000000000006</v>
       </c>
       <c r="DD89">
-        <v>72.400000000000006</v>
+        <v>72.5</v>
       </c>
       <c r="DE89">
-        <v>72.3</v>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="DF89">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="DG89">
+        <v>70.8</v>
+      </c>
+      <c r="DH89">
+        <v>74.3</v>
       </c>
     </row>
-    <row r="90" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -31347,10 +32183,19 @@
         <v>70.7</v>
       </c>
       <c r="DE90">
-        <v>72.7</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="DF90">
+        <v>83</v>
+      </c>
+      <c r="DG90">
+        <v>80.5</v>
+      </c>
+      <c r="DH90">
+        <v>81.7</v>
       </c>
     </row>
-    <row r="91" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -31670,16 +32515,25 @@
         <v>126.7</v>
       </c>
       <c r="DC91">
-        <v>122.4</v>
+        <v>122.3</v>
       </c>
       <c r="DD91">
-        <v>121.2</v>
+        <v>121</v>
       </c>
       <c r="DE91">
-        <v>117.5</v>
+        <v>117.7</v>
+      </c>
+      <c r="DF91">
+        <v>119.9</v>
+      </c>
+      <c r="DG91">
+        <v>120</v>
+      </c>
+      <c r="DH91">
+        <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -32005,10 +32859,19 @@
         <v>75.8</v>
       </c>
       <c r="DE92">
-        <v>69.2</v>
+        <v>69.3</v>
+      </c>
+      <c r="DF92">
+        <v>72.2</v>
+      </c>
+      <c r="DG92">
+        <v>71</v>
+      </c>
+      <c r="DH92">
+        <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -32334,10 +33197,19 @@
         <v>101.5</v>
       </c>
       <c r="DE93">
-        <v>103.8</v>
+        <v>103.6</v>
+      </c>
+      <c r="DF93">
+        <v>102.7</v>
+      </c>
+      <c r="DG93">
+        <v>100.2</v>
+      </c>
+      <c r="DH93">
+        <v>103.3</v>
       </c>
     </row>
-    <row r="94" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -32657,16 +33529,25 @@
         <v>72.8</v>
       </c>
       <c r="DC94">
-        <v>69.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="DD94">
         <v>69.7</v>
       </c>
       <c r="DE94">
-        <v>69.8</v>
+        <v>69.7</v>
+      </c>
+      <c r="DF94">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="DG94">
+        <v>71.8</v>
+      </c>
+      <c r="DH94">
+        <v>69.2</v>
       </c>
     </row>
-    <row r="95" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -32994,8 +33875,17 @@
       <c r="DE95">
         <v>121.5</v>
       </c>
+      <c r="DF95">
+        <v>121</v>
+      </c>
+      <c r="DG95">
+        <v>119.7</v>
+      </c>
+      <c r="DH95">
+        <v>127.1</v>
+      </c>
     </row>
-    <row r="96" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -33321,10 +34211,19 @@
         <v>93.3</v>
       </c>
       <c r="DE96">
-        <v>96</v>
+        <v>95.7</v>
+      </c>
+      <c r="DF96">
+        <v>95.2</v>
+      </c>
+      <c r="DG96">
+        <v>91.3</v>
+      </c>
+      <c r="DH96">
+        <v>92.7</v>
       </c>
     </row>
-    <row r="97" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -33647,13 +34546,22 @@
         <v>103.7</v>
       </c>
       <c r="DD97">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="DE97">
-        <v>105.6</v>
+        <v>107.3</v>
+      </c>
+      <c r="DF97">
+        <v>106.3</v>
+      </c>
+      <c r="DG97">
+        <v>105.2</v>
+      </c>
+      <c r="DH97">
+        <v>107.5</v>
       </c>
     </row>
-    <row r="98" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -33979,10 +34887,19 @@
         <v>122</v>
       </c>
       <c r="DE98">
-        <v>120.9</v>
+        <v>122.1</v>
+      </c>
+      <c r="DF98">
+        <v>122.8</v>
+      </c>
+      <c r="DG98">
+        <v>121.3</v>
+      </c>
+      <c r="DH98">
+        <v>123.3</v>
       </c>
     </row>
-    <row r="99" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -34310,8 +35227,17 @@
       <c r="DE99">
         <v>119.2</v>
       </c>
+      <c r="DF99">
+        <v>119.3</v>
+      </c>
+      <c r="DG99">
+        <v>119.9</v>
+      </c>
+      <c r="DH99">
+        <v>122.6</v>
+      </c>
     </row>
-    <row r="100" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -34637,10 +35563,19 @@
         <v>123.6</v>
       </c>
       <c r="DE100">
-        <v>124.3</v>
+        <v>124.2</v>
+      </c>
+      <c r="DF100">
+        <v>124.4</v>
+      </c>
+      <c r="DG100">
+        <v>124.6</v>
+      </c>
+      <c r="DH100">
+        <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -34968,8 +35903,17 @@
       <c r="DE101">
         <v>111.1</v>
       </c>
+      <c r="DF101">
+        <v>111.7</v>
+      </c>
+      <c r="DG101">
+        <v>112.6</v>
+      </c>
+      <c r="DH101">
+        <v>118.3</v>
+      </c>
     </row>
-    <row r="102" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -35297,8 +36241,17 @@
       <c r="DE102">
         <v>53.1</v>
       </c>
+      <c r="DF102">
+        <v>58.6</v>
+      </c>
+      <c r="DG102">
+        <v>48.6</v>
+      </c>
+      <c r="DH102">
+        <v>58.3</v>
+      </c>
     </row>
-    <row r="103" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -35626,8 +36579,17 @@
       <c r="DE103">
         <v>109.1</v>
       </c>
+      <c r="DF103">
+        <v>105.1</v>
+      </c>
+      <c r="DG103">
+        <v>105.7</v>
+      </c>
+      <c r="DH103">
+        <v>111.6</v>
+      </c>
     </row>
-    <row r="104" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -35955,8 +36917,17 @@
       <c r="DE104">
         <v>112.5</v>
       </c>
+      <c r="DF104">
+        <v>117</v>
+      </c>
+      <c r="DG104">
+        <v>114.5</v>
+      </c>
+      <c r="DH104">
+        <v>122.7</v>
+      </c>
     </row>
-    <row r="105" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -36284,8 +37255,17 @@
       <c r="DE105">
         <v>104.3</v>
       </c>
+      <c r="DF105">
+        <v>102.7</v>
+      </c>
+      <c r="DG105">
+        <v>102.5</v>
+      </c>
+      <c r="DH105">
+        <v>106.1</v>
+      </c>
     </row>
-    <row r="106" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -36611,10 +37591,19 @@
         <v>139</v>
       </c>
       <c r="DE106">
-        <v>143.80000000000001</v>
+        <v>143.6</v>
+      </c>
+      <c r="DF106">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="DG106">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="DH106">
+        <v>147.4</v>
       </c>
     </row>
-    <row r="107" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -36940,10 +37929,19 @@
         <v>119.2</v>
       </c>
       <c r="DE107">
-        <v>119.6</v>
+        <v>119.4</v>
+      </c>
+      <c r="DF107">
+        <v>119.9</v>
+      </c>
+      <c r="DG107">
+        <v>120.2</v>
+      </c>
+      <c r="DH107">
+        <v>120.6</v>
       </c>
     </row>
-    <row r="108" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -37269,10 +38267,19 @@
         <v>140.9</v>
       </c>
       <c r="DE108">
-        <v>146.19999999999999</v>
+        <v>146</v>
+      </c>
+      <c r="DF108">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="DG108">
+        <v>158.6</v>
+      </c>
+      <c r="DH108">
+        <v>149.9</v>
       </c>
     </row>
-    <row r="109" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -37598,10 +38605,19 @@
         <v>156.69999999999999</v>
       </c>
       <c r="DE109">
-        <v>164.2</v>
+        <v>164</v>
+      </c>
+      <c r="DF109">
+        <v>170.9</v>
+      </c>
+      <c r="DG109">
+        <v>174.9</v>
+      </c>
+      <c r="DH109">
+        <v>167.2</v>
       </c>
     </row>
-    <row r="110" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -37929,8 +38945,17 @@
       <c r="DE110">
         <v>74.8</v>
       </c>
+      <c r="DF110">
+        <v>77</v>
+      </c>
+      <c r="DG110">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="DH110">
+        <v>74.099999999999994</v>
+      </c>
     </row>
-    <row r="111" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -38256,10 +39281,19 @@
         <v>133.6</v>
       </c>
       <c r="DE111">
-        <v>119.3</v>
+        <v>128.5</v>
+      </c>
+      <c r="DF111">
+        <v>114.5</v>
+      </c>
+      <c r="DG111">
+        <v>112.9</v>
+      </c>
+      <c r="DH111">
+        <v>117.7</v>
       </c>
     </row>
-    <row r="112" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -38585,10 +39619,19 @@
         <v>109.6</v>
       </c>
       <c r="DE112">
-        <v>109.8</v>
+        <v>154.30000000000001</v>
+      </c>
+      <c r="DF112">
+        <v>152.6</v>
+      </c>
+      <c r="DG112">
+        <v>138.9</v>
+      </c>
+      <c r="DH112">
+        <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -38916,8 +39959,17 @@
       <c r="DE113">
         <v>123.7</v>
       </c>
+      <c r="DF113">
+        <v>116.5</v>
+      </c>
+      <c r="DG113">
+        <v>99</v>
+      </c>
+      <c r="DH113">
+        <v>119.6</v>
+      </c>
     </row>
-    <row r="114" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -39237,16 +40289,25 @@
         <v>85.6</v>
       </c>
       <c r="DC114">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="DD114">
-        <v>81.400000000000006</v>
+        <v>81.2</v>
       </c>
       <c r="DE114">
-        <v>83.4</v>
+        <v>85.8</v>
+      </c>
+      <c r="DF114">
+        <v>84.5</v>
+      </c>
+      <c r="DG114">
+        <v>83.1</v>
+      </c>
+      <c r="DH114">
+        <v>82.8</v>
       </c>
     </row>
-    <row r="115" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -39572,10 +40633,19 @@
         <v>75.400000000000006</v>
       </c>
       <c r="DE115">
-        <v>76.2</v>
+        <v>79.7</v>
+      </c>
+      <c r="DF115">
+        <v>79.2</v>
+      </c>
+      <c r="DG115">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="DH115">
+        <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -39895,16 +40965,25 @@
         <v>100.8</v>
       </c>
       <c r="DC116">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="DD116">
-        <v>102.5</v>
+        <v>101.8</v>
       </c>
       <c r="DE116">
-        <v>100.1</v>
+        <v>100.3</v>
+      </c>
+      <c r="DF116">
+        <v>102.1</v>
+      </c>
+      <c r="DG116">
+        <v>100</v>
+      </c>
+      <c r="DH116">
+        <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -40227,13 +41306,22 @@
         <v>104</v>
       </c>
       <c r="DD117">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="DE117">
-        <v>103.3</v>
+        <v>103.4</v>
+      </c>
+      <c r="DF117">
+        <v>102.2</v>
+      </c>
+      <c r="DG117">
+        <v>103</v>
+      </c>
+      <c r="DH117">
+        <v>103.4</v>
       </c>
     </row>
-    <row r="118" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -40556,13 +41644,22 @@
         <v>104</v>
       </c>
       <c r="DD118">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="DE118">
-        <v>103.2</v>
+        <v>103.3</v>
+      </c>
+      <c r="DF118">
+        <v>101.5</v>
+      </c>
+      <c r="DG118">
+        <v>102.1</v>
+      </c>
+      <c r="DH118">
+        <v>102.9</v>
       </c>
     </row>
-    <row r="119" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -40890,8 +41987,17 @@
       <c r="DE119">
         <v>101</v>
       </c>
+      <c r="DF119">
+        <v>100.9</v>
+      </c>
+      <c r="DG119">
+        <v>100.5</v>
+      </c>
+      <c r="DH119">
+        <v>100.7</v>
+      </c>
     </row>
-    <row r="120" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -41219,8 +42325,17 @@
       <c r="DE120">
         <v>91.9</v>
       </c>
+      <c r="DF120">
+        <v>91.5</v>
+      </c>
+      <c r="DG120">
+        <v>90.6</v>
+      </c>
+      <c r="DH120">
+        <v>90.6</v>
+      </c>
     </row>
-    <row r="121" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -41548,8 +42663,17 @@
       <c r="DE121">
         <v>98.4</v>
       </c>
+      <c r="DF121">
+        <v>98.2</v>
+      </c>
+      <c r="DG121">
+        <v>97.9</v>
+      </c>
+      <c r="DH121">
+        <v>97.6</v>
+      </c>
     </row>
-    <row r="122" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -41877,8 +43001,17 @@
       <c r="DE122">
         <v>108.3</v>
       </c>
+      <c r="DF122">
+        <v>108</v>
+      </c>
+      <c r="DG122">
+        <v>106.5</v>
+      </c>
+      <c r="DH122">
+        <v>106.8</v>
+      </c>
     </row>
-    <row r="123" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -42206,8 +43339,17 @@
       <c r="DE123">
         <v>93.1</v>
       </c>
+      <c r="DF123">
+        <v>92.4</v>
+      </c>
+      <c r="DG123">
+        <v>91.9</v>
+      </c>
+      <c r="DH123">
+        <v>92</v>
+      </c>
     </row>
-    <row r="124" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -42535,8 +43677,17 @@
       <c r="DE124">
         <v>86.1</v>
       </c>
+      <c r="DF124">
+        <v>85.4</v>
+      </c>
+      <c r="DG124">
+        <v>84.3</v>
+      </c>
+      <c r="DH124">
+        <v>83.9</v>
+      </c>
     </row>
-    <row r="125" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -42864,8 +44015,17 @@
       <c r="DE125">
         <v>107.3</v>
       </c>
+      <c r="DF125">
+        <v>107.3</v>
+      </c>
+      <c r="DG125">
+        <v>107.1</v>
+      </c>
+      <c r="DH125">
+        <v>107.3</v>
+      </c>
     </row>
-    <row r="126" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -43193,8 +44353,17 @@
       <c r="DE126">
         <v>111.9</v>
       </c>
+      <c r="DF126">
+        <v>111.9</v>
+      </c>
+      <c r="DG126">
+        <v>111.7</v>
+      </c>
+      <c r="DH126">
+        <v>111.9</v>
+      </c>
     </row>
-    <row r="127" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -43522,8 +44691,17 @@
       <c r="DE127">
         <v>71</v>
       </c>
+      <c r="DF127">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="DG127">
+        <v>70.3</v>
+      </c>
+      <c r="DH127">
+        <v>70</v>
+      </c>
     </row>
-    <row r="128" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -43851,8 +45029,17 @@
       <c r="DE128">
         <v>104.8</v>
       </c>
+      <c r="DF128">
+        <v>104.8</v>
+      </c>
+      <c r="DG128">
+        <v>104.8</v>
+      </c>
+      <c r="DH128">
+        <v>105.2</v>
+      </c>
     </row>
-    <row r="129" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -44175,13 +45362,22 @@
         <v>107.4</v>
       </c>
       <c r="DD129">
-        <v>110.1</v>
+        <v>109.9</v>
       </c>
       <c r="DE129">
-        <v>107.2</v>
+        <v>107.6</v>
+      </c>
+      <c r="DF129">
+        <v>103.3</v>
+      </c>
+      <c r="DG129">
+        <v>105.6</v>
+      </c>
+      <c r="DH129">
+        <v>107.8</v>
       </c>
     </row>
-    <row r="130" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -44504,13 +45700,22 @@
         <v>115.2</v>
       </c>
       <c r="DD130">
-        <v>114.6</v>
+        <v>114.4</v>
       </c>
       <c r="DE130">
         <v>112.3</v>
       </c>
+      <c r="DF130">
+        <v>110</v>
+      </c>
+      <c r="DG130">
+        <v>110.1</v>
+      </c>
+      <c r="DH130">
+        <v>113.9</v>
+      </c>
     </row>
-    <row r="131" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -44838,8 +46043,17 @@
       <c r="DE131">
         <v>138.4</v>
       </c>
+      <c r="DF131">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="DG131">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="DH131">
+        <v>137.6</v>
+      </c>
     </row>
-    <row r="132" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -45165,10 +46379,19 @@
         <v>38.700000000000003</v>
       </c>
       <c r="DE132">
-        <v>37.6</v>
+        <v>37.9</v>
+      </c>
+      <c r="DF132">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="DG132">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="DH132">
+        <v>37.1</v>
       </c>
     </row>
-    <row r="133" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -45491,13 +46714,22 @@
         <v>102.9</v>
       </c>
       <c r="DD133">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="DE133">
-        <v>104.7</v>
+        <v>106.1</v>
+      </c>
+      <c r="DF133">
+        <v>98.5</v>
+      </c>
+      <c r="DG133">
+        <v>103.9</v>
+      </c>
+      <c r="DH133">
+        <v>102.6</v>
       </c>
     </row>
-    <row r="134" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>265</v>
       </c>
@@ -45825,8 +47057,17 @@
       <c r="DE134">
         <v>104.6</v>
       </c>
+      <c r="DF134">
+        <v>106.3</v>
+      </c>
+      <c r="DG134">
+        <v>109.5</v>
+      </c>
+      <c r="DH134">
+        <v>106.8</v>
+      </c>
     </row>
-    <row r="135" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>267</v>
       </c>
@@ -46154,8 +47395,17 @@
       <c r="DE135">
         <v>106.5</v>
       </c>
+      <c r="DF135">
+        <v>106.2</v>
+      </c>
+      <c r="DG135">
+        <v>108.4</v>
+      </c>
+      <c r="DH135">
+        <v>107</v>
+      </c>
     </row>
-    <row r="136" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>269</v>
       </c>
@@ -46483,8 +47733,17 @@
       <c r="DE136">
         <v>98.6</v>
       </c>
+      <c r="DF136">
+        <v>103.4</v>
+      </c>
+      <c r="DG136">
+        <v>113.3</v>
+      </c>
+      <c r="DH136">
+        <v>107.2</v>
+      </c>
     </row>
-    <row r="137" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>271</v>
       </c>
@@ -46812,8 +48071,17 @@
       <c r="DE137">
         <v>103.5</v>
       </c>
+      <c r="DF137">
+        <v>107.9</v>
+      </c>
+      <c r="DG137">
+        <v>114.4</v>
+      </c>
+      <c r="DH137">
+        <v>111.8</v>
+      </c>
     </row>
-    <row r="138" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>273</v>
       </c>
@@ -47141,8 +48409,17 @@
       <c r="DE138">
         <v>90.5</v>
       </c>
+      <c r="DF138">
+        <v>106.6</v>
+      </c>
+      <c r="DG138">
+        <v>110.4</v>
+      </c>
+      <c r="DH138">
+        <v>97.1</v>
+      </c>
     </row>
-    <row r="139" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>275</v>
       </c>
@@ -47468,10 +48745,19 @@
         <v>100.9</v>
       </c>
       <c r="DE139">
-        <v>101.6</v>
+        <v>101.2</v>
+      </c>
+      <c r="DF139">
+        <v>100.4</v>
+      </c>
+      <c r="DG139">
+        <v>101.2</v>
+      </c>
+      <c r="DH139">
+        <v>98.6</v>
       </c>
     </row>
-    <row r="140" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -47797,10 +49083,19 @@
         <v>97.5</v>
       </c>
       <c r="DE140">
-        <v>98.7</v>
+        <v>98.8</v>
+      </c>
+      <c r="DF140">
+        <v>97.2</v>
+      </c>
+      <c r="DG140">
+        <v>96.4</v>
+      </c>
+      <c r="DH140">
+        <v>97.7</v>
       </c>
     </row>
-    <row r="141" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>279</v>
       </c>
@@ -48126,10 +49421,19 @@
         <v>104.1</v>
       </c>
       <c r="DE141">
-        <v>106.4</v>
+        <v>106.3</v>
+      </c>
+      <c r="DF141">
+        <v>106.1</v>
+      </c>
+      <c r="DG141">
+        <v>104.7</v>
+      </c>
+      <c r="DH141">
+        <v>105.1</v>
       </c>
     </row>
-    <row r="142" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>281</v>
       </c>
@@ -48457,8 +49761,17 @@
       <c r="DE142">
         <v>100.5</v>
       </c>
+      <c r="DF142">
+        <v>102.7</v>
+      </c>
+      <c r="DG142">
+        <v>100.6</v>
+      </c>
+      <c r="DH142">
+        <v>101.4</v>
+      </c>
     </row>
-    <row r="143" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>283</v>
       </c>
@@ -48786,8 +50099,17 @@
       <c r="DE143">
         <v>99.9</v>
       </c>
+      <c r="DF143">
+        <v>101.4</v>
+      </c>
+      <c r="DG143">
+        <v>100.4</v>
+      </c>
+      <c r="DH143">
+        <v>100.7</v>
+      </c>
     </row>
-    <row r="144" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -49115,8 +50437,17 @@
       <c r="DE144">
         <v>102.5</v>
       </c>
+      <c r="DF144">
+        <v>109.1</v>
+      </c>
+      <c r="DG144">
+        <v>99.4</v>
+      </c>
+      <c r="DH144">
+        <v>105.8</v>
+      </c>
     </row>
-    <row r="145" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>287</v>
       </c>
@@ -49442,10 +50773,19 @@
         <v>87.8</v>
       </c>
       <c r="DE145">
-        <v>90.6</v>
+        <v>94.8</v>
+      </c>
+      <c r="DF145">
+        <v>97.8</v>
+      </c>
+      <c r="DG145">
+        <v>95.5</v>
+      </c>
+      <c r="DH145">
+        <v>92.2</v>
       </c>
     </row>
-    <row r="146" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>289</v>
       </c>
@@ -49771,10 +51111,19 @@
         <v>107.9</v>
       </c>
       <c r="DE146">
-        <v>110.6</v>
+        <v>110</v>
+      </c>
+      <c r="DF146">
+        <v>108.9</v>
+      </c>
+      <c r="DG146">
+        <v>108.1</v>
+      </c>
+      <c r="DH146">
+        <v>107.8</v>
       </c>
     </row>
-    <row r="147" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -50100,10 +51449,19 @@
         <v>97.9</v>
       </c>
       <c r="DE147">
-        <v>95.1</v>
+        <v>95.2</v>
+      </c>
+      <c r="DF147">
+        <v>91</v>
+      </c>
+      <c r="DG147">
+        <v>92.1</v>
+      </c>
+      <c r="DH147">
+        <v>82.9</v>
       </c>
     </row>
-    <row r="148" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>293</v>
       </c>
@@ -50429,10 +51787,19 @@
         <v>82</v>
       </c>
       <c r="DE148">
-        <v>85.5</v>
+        <v>85.6</v>
+      </c>
+      <c r="DF148">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="DG148">
+        <v>83.6</v>
+      </c>
+      <c r="DH148">
+        <v>82.4</v>
       </c>
     </row>
-    <row r="149" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>295</v>
       </c>
@@ -50760,8 +52127,17 @@
       <c r="DE149">
         <v>73.900000000000006</v>
       </c>
+      <c r="DF149">
+        <v>54.4</v>
+      </c>
+      <c r="DG149">
+        <v>63.4</v>
+      </c>
+      <c r="DH149">
+        <v>62.8</v>
+      </c>
     </row>
-    <row r="150" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>297</v>
       </c>
@@ -51089,8 +52465,17 @@
       <c r="DE150">
         <v>45.5</v>
       </c>
+      <c r="DF150">
+        <v>44.4</v>
+      </c>
+      <c r="DG150">
+        <v>50.1</v>
+      </c>
+      <c r="DH150">
+        <v>42.7</v>
+      </c>
     </row>
-    <row r="151" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -51416,10 +52801,19 @@
         <v>93.1</v>
       </c>
       <c r="DE151">
-        <v>92.6</v>
+        <v>92.7</v>
+      </c>
+      <c r="DF151">
+        <v>92</v>
+      </c>
+      <c r="DG151">
+        <v>89.4</v>
+      </c>
+      <c r="DH151">
+        <v>89.4</v>
       </c>
     </row>
-    <row r="152" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -51747,8 +53141,17 @@
       <c r="DE152">
         <v>74.400000000000006</v>
       </c>
+      <c r="DF152">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="DG152">
+        <v>74.5</v>
+      </c>
+      <c r="DH152">
+        <v>70.5</v>
+      </c>
     </row>
-    <row r="153" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>303</v>
       </c>
@@ -52074,10 +53477,19 @@
         <v>105.6</v>
       </c>
       <c r="DE153">
-        <v>100.8</v>
+        <v>101</v>
+      </c>
+      <c r="DF153">
+        <v>95.8</v>
+      </c>
+      <c r="DG153">
+        <v>98</v>
+      </c>
+      <c r="DH153">
+        <v>82.9</v>
       </c>
     </row>
-    <row r="154" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>305</v>
       </c>
@@ -52405,8 +53817,17 @@
       <c r="DE154">
         <v>61.2</v>
       </c>
+      <c r="DF154">
+        <v>69.5</v>
+      </c>
+      <c r="DG154">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="DH154">
+        <v>65.099999999999994</v>
+      </c>
     </row>
-    <row r="155" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>307</v>
       </c>
@@ -52734,8 +54155,17 @@
       <c r="DE155">
         <v>76.8</v>
       </c>
+      <c r="DF155">
+        <v>66.5</v>
+      </c>
+      <c r="DG155">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="DH155">
+        <v>62.3</v>
+      </c>
     </row>
-    <row r="156" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -53063,8 +54493,17 @@
       <c r="DE156">
         <v>62</v>
       </c>
+      <c r="DF156">
+        <v>58.4</v>
+      </c>
+      <c r="DG156">
+        <v>59.3</v>
+      </c>
+      <c r="DH156">
+        <v>54.5</v>
+      </c>
     </row>
-    <row r="157" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -53390,10 +54829,19 @@
         <v>158.1</v>
       </c>
       <c r="DE157">
-        <v>156.19999999999999</v>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="DF157">
+        <v>162.5</v>
+      </c>
+      <c r="DG157">
+        <v>146.1</v>
+      </c>
+      <c r="DH157">
+        <v>164.9</v>
       </c>
     </row>
-    <row r="158" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -53719,10 +55167,19 @@
         <v>107.3</v>
       </c>
       <c r="DE158">
-        <v>89.4</v>
+        <v>89.5</v>
+      </c>
+      <c r="DF158">
+        <v>76.2</v>
+      </c>
+      <c r="DG158">
+        <v>86.9</v>
+      </c>
+      <c r="DH158">
+        <v>46.8</v>
       </c>
     </row>
-    <row r="159" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -54048,10 +55505,19 @@
         <v>105.1</v>
       </c>
       <c r="DE159">
-        <v>101.9</v>
+        <v>101.8</v>
+      </c>
+      <c r="DF159">
+        <v>101.4</v>
+      </c>
+      <c r="DG159">
+        <v>103.3</v>
+      </c>
+      <c r="DH159">
+        <v>98.6</v>
       </c>
     </row>
-    <row r="160" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -54377,10 +55843,19 @@
         <v>105.3</v>
       </c>
       <c r="DE160">
-        <v>101.4</v>
+        <v>101.3</v>
+      </c>
+      <c r="DF160">
+        <v>99.9</v>
+      </c>
+      <c r="DG160">
+        <v>97</v>
+      </c>
+      <c r="DH160">
+        <v>95.9</v>
       </c>
     </row>
-    <row r="161" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -54706,10 +56181,19 @@
         <v>108.4</v>
       </c>
       <c r="DE161">
-        <v>103.1</v>
+        <v>103</v>
+      </c>
+      <c r="DF161">
+        <v>101.9</v>
+      </c>
+      <c r="DG161">
+        <v>98.5</v>
+      </c>
+      <c r="DH161">
+        <v>96.5</v>
       </c>
     </row>
-    <row r="162" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -55037,8 +56521,17 @@
       <c r="DE162">
         <v>87.6</v>
       </c>
+      <c r="DF162">
+        <v>87</v>
+      </c>
+      <c r="DG162">
+        <v>87.7</v>
+      </c>
+      <c r="DH162">
+        <v>87.2</v>
+      </c>
     </row>
-    <row r="163" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -55364,10 +56857,19 @@
         <v>107.1</v>
       </c>
       <c r="DE163">
-        <v>106.4</v>
+        <v>106.3</v>
+      </c>
+      <c r="DF163">
+        <v>102</v>
+      </c>
+      <c r="DG163">
+        <v>97.9</v>
+      </c>
+      <c r="DH163">
+        <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -55690,13 +57192,22 @@
         <v>98.2</v>
       </c>
       <c r="DD164">
-        <v>113.5</v>
+        <v>113.7</v>
       </c>
       <c r="DE164">
-        <v>103.2</v>
+        <v>102.9</v>
+      </c>
+      <c r="DF164">
+        <v>105.5</v>
+      </c>
+      <c r="DG164">
+        <v>126.8</v>
+      </c>
+      <c r="DH164">
+        <v>93.8</v>
       </c>
     </row>
-    <row r="165" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -56024,8 +57535,17 @@
       <c r="DE165">
         <v>101.8</v>
       </c>
+      <c r="DF165">
+        <v>101.8</v>
+      </c>
+      <c r="DG165">
+        <v>101.9</v>
+      </c>
+      <c r="DH165">
+        <v>102.5</v>
+      </c>
     </row>
-    <row r="166" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -56351,10 +57871,19 @@
         <v>104.7</v>
       </c>
       <c r="DE166">
-        <v>114.4</v>
+        <v>113.9</v>
+      </c>
+      <c r="DF166">
+        <v>116.7</v>
+      </c>
+      <c r="DG166">
+        <v>105.1</v>
+      </c>
+      <c r="DH166">
+        <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -56682,8 +58211,17 @@
       <c r="DE167">
         <v>83.5</v>
       </c>
+      <c r="DF167">
+        <v>84.9</v>
+      </c>
+      <c r="DG167">
+        <v>88</v>
+      </c>
+      <c r="DH167">
+        <v>93.8</v>
+      </c>
     </row>
-    <row r="168" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -57009,10 +58547,19 @@
         <v>125.5</v>
       </c>
       <c r="DE168">
-        <v>128.19999999999999</v>
+        <v>123.5</v>
+      </c>
+      <c r="DF168">
+        <v>125.9</v>
+      </c>
+      <c r="DG168">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="DH168">
+        <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -57338,10 +58885,19 @@
         <v>88.1</v>
       </c>
       <c r="DE169">
-        <v>87.9</v>
+        <v>88.8</v>
+      </c>
+      <c r="DF169">
+        <v>91</v>
+      </c>
+      <c r="DG169">
+        <v>86.6</v>
+      </c>
+      <c r="DH169">
+        <v>85.7</v>
       </c>
     </row>
-    <row r="170" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -57667,10 +59223,19 @@
         <v>99.9</v>
       </c>
       <c r="DE170">
-        <v>100.3</v>
+        <v>105</v>
+      </c>
+      <c r="DF170">
+        <v>102</v>
+      </c>
+      <c r="DG170">
+        <v>100.4</v>
+      </c>
+      <c r="DH170">
+        <v>99.7</v>
       </c>
     </row>
-    <row r="171" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -57996,10 +59561,19 @@
         <v>93.3</v>
       </c>
       <c r="DE171">
-        <v>93.5</v>
+        <v>93.4</v>
+      </c>
+      <c r="DF171">
+        <v>92.2</v>
+      </c>
+      <c r="DG171">
+        <v>92.2</v>
+      </c>
+      <c r="DH171">
+        <v>93.3</v>
       </c>
     </row>
-    <row r="172" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -58325,10 +59899,19 @@
         <v>101.4</v>
       </c>
       <c r="DE172">
-        <v>101.7</v>
+        <v>99.5</v>
+      </c>
+      <c r="DF172">
+        <v>100.9</v>
+      </c>
+      <c r="DG172">
+        <v>101.2</v>
+      </c>
+      <c r="DH172">
+        <v>101.6</v>
       </c>
     </row>
-    <row r="173" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -58654,10 +60237,19 @@
         <v>97.7</v>
       </c>
       <c r="DE173">
-        <v>99.2</v>
+        <v>99.1</v>
+      </c>
+      <c r="DF173">
+        <v>99.8</v>
+      </c>
+      <c r="DG173">
+        <v>98.8</v>
+      </c>
+      <c r="DH173">
+        <v>96.1</v>
       </c>
     </row>
-    <row r="174" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -58985,8 +60577,17 @@
       <c r="DE174">
         <v>78.7</v>
       </c>
+      <c r="DF174">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="DG174">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="DH174">
+        <v>73.599999999999994</v>
+      </c>
     </row>
-    <row r="175" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -59312,10 +60913,19 @@
         <v>81.3</v>
       </c>
       <c r="DE175">
-        <v>84.8</v>
+        <v>84.9</v>
+      </c>
+      <c r="DF175">
+        <v>94.1</v>
+      </c>
+      <c r="DG175">
+        <v>94.3</v>
+      </c>
+      <c r="DH175">
+        <v>76.5</v>
       </c>
     </row>
-    <row r="176" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -59641,10 +61251,19 @@
         <v>104.4</v>
       </c>
       <c r="DE176">
-        <v>106.4</v>
+        <v>106.3</v>
+      </c>
+      <c r="DF176">
+        <v>104.8</v>
+      </c>
+      <c r="DG176">
+        <v>100.6</v>
+      </c>
+      <c r="DH176">
+        <v>101.3</v>
       </c>
     </row>
-    <row r="177" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>351</v>
       </c>
@@ -59970,10 +61589,19 @@
         <v>87</v>
       </c>
       <c r="DE177">
-        <v>82.4</v>
+        <v>82.2</v>
+      </c>
+      <c r="DF177">
+        <v>90.4</v>
+      </c>
+      <c r="DG177">
+        <v>96.3</v>
+      </c>
+      <c r="DH177">
+        <v>91.8</v>
       </c>
     </row>
-    <row r="178" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -60299,10 +61927,19 @@
         <v>105.5</v>
       </c>
       <c r="DE178">
-        <v>112.9</v>
+        <v>113.3</v>
+      </c>
+      <c r="DF178">
+        <v>105.9</v>
+      </c>
+      <c r="DG178">
+        <v>106.6</v>
+      </c>
+      <c r="DH178">
+        <v>107.8</v>
       </c>
     </row>
-    <row r="179" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -60630,8 +62267,17 @@
       <c r="DE179">
         <v>104.8</v>
       </c>
+      <c r="DF179">
+        <v>101.4</v>
+      </c>
+      <c r="DG179">
+        <v>100.3</v>
+      </c>
+      <c r="DH179">
+        <v>98.5</v>
+      </c>
     </row>
-    <row r="180" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -60957,10 +62603,19 @@
         <v>103.8</v>
       </c>
       <c r="DE180">
-        <v>105.4</v>
+        <v>105.2</v>
+      </c>
+      <c r="DF180">
+        <v>105.3</v>
+      </c>
+      <c r="DG180">
+        <v>101.8</v>
+      </c>
+      <c r="DH180">
+        <v>102.9</v>
       </c>
     </row>
-    <row r="181" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -61286,10 +62941,19 @@
         <v>117.6</v>
       </c>
       <c r="DE181">
-        <v>118.2</v>
+        <v>117.9</v>
+      </c>
+      <c r="DF181">
+        <v>117.8</v>
+      </c>
+      <c r="DG181">
+        <v>116.2</v>
+      </c>
+      <c r="DH181">
+        <v>119.7</v>
       </c>
     </row>
-    <row r="182" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -61615,10 +63279,19 @@
         <v>95.6</v>
       </c>
       <c r="DE182">
-        <v>97.4</v>
+        <v>97.2</v>
+      </c>
+      <c r="DF182">
+        <v>97.8</v>
+      </c>
+      <c r="DG182">
+        <v>94.1</v>
+      </c>
+      <c r="DH182">
+        <v>92.7</v>
       </c>
     </row>
-    <row r="183" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -61944,10 +63617,19 @@
         <v>100.8</v>
       </c>
       <c r="DE183">
-        <v>100</v>
+        <v>99.8</v>
+      </c>
+      <c r="DF183">
+        <v>101.9</v>
+      </c>
+      <c r="DG183">
+        <v>105.8</v>
+      </c>
+      <c r="DH183">
+        <v>100.2</v>
       </c>
     </row>
-    <row r="184" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -62275,8 +63957,17 @@
       <c r="DE184">
         <v>100.5</v>
       </c>
+      <c r="DF184">
+        <v>102.1</v>
+      </c>
+      <c r="DG184">
+        <v>99.8</v>
+      </c>
+      <c r="DH184">
+        <v>100.7</v>
+      </c>
     </row>
-    <row r="185" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -62604,8 +64295,17 @@
       <c r="DE185">
         <v>104.2</v>
       </c>
+      <c r="DF185">
+        <v>111.5</v>
+      </c>
+      <c r="DG185">
+        <v>104.8</v>
+      </c>
+      <c r="DH185">
+        <v>98.8</v>
+      </c>
     </row>
-    <row r="186" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -62933,8 +64633,17 @@
       <c r="DE186">
         <v>96.6</v>
       </c>
+      <c r="DF186">
+        <v>118.8</v>
+      </c>
+      <c r="DG186">
+        <v>102.8</v>
+      </c>
+      <c r="DH186">
+        <v>92.6</v>
+      </c>
     </row>
-    <row r="187" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -63262,8 +64971,17 @@
       <c r="DE187">
         <v>106.3</v>
       </c>
+      <c r="DF187">
+        <v>108.6</v>
+      </c>
+      <c r="DG187">
+        <v>88.8</v>
+      </c>
+      <c r="DH187">
+        <v>82.4</v>
+      </c>
     </row>
-    <row r="188" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -63591,8 +65309,17 @@
       <c r="DE188">
         <v>100</v>
       </c>
+      <c r="DF188">
+        <v>101.8</v>
+      </c>
+      <c r="DG188">
+        <v>98.3</v>
+      </c>
+      <c r="DH188">
+        <v>76</v>
+      </c>
     </row>
-    <row r="189" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -63920,8 +65647,17 @@
       <c r="DE189">
         <v>104.2</v>
       </c>
+      <c r="DF189">
+        <v>115.8</v>
+      </c>
+      <c r="DG189">
+        <v>74.7</v>
+      </c>
+      <c r="DH189">
+        <v>92.5</v>
+      </c>
     </row>
-    <row r="190" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>377</v>
       </c>
@@ -64249,8 +65985,17 @@
       <c r="DE190">
         <v>128.80000000000001</v>
       </c>
+      <c r="DF190">
+        <v>111.8</v>
+      </c>
+      <c r="DG190">
+        <v>99.4</v>
+      </c>
+      <c r="DH190">
+        <v>84</v>
+      </c>
     </row>
-    <row r="191" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>379</v>
       </c>
@@ -64578,8 +66323,17 @@
       <c r="DE191">
         <v>74.400000000000006</v>
       </c>
+      <c r="DF191">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="DG191">
+        <v>93.6</v>
+      </c>
+      <c r="DH191">
+        <v>80.8</v>
+      </c>
     </row>
-    <row r="192" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>381</v>
       </c>
@@ -64907,8 +66661,17 @@
       <c r="DE192">
         <v>72.599999999999994</v>
       </c>
+      <c r="DF192">
+        <v>155.4</v>
+      </c>
+      <c r="DG192">
+        <v>85.3</v>
+      </c>
+      <c r="DH192">
+        <v>68.3</v>
+      </c>
     </row>
-    <row r="193" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>383</v>
       </c>
@@ -65236,8 +66999,17 @@
       <c r="DE193">
         <v>79.5</v>
       </c>
+      <c r="DF193">
+        <v>107.7</v>
+      </c>
+      <c r="DG193">
+        <v>82.3</v>
+      </c>
+      <c r="DH193">
+        <v>111.2</v>
+      </c>
     </row>
-    <row r="194" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>385</v>
       </c>
@@ -65565,8 +67337,17 @@
       <c r="DE194">
         <v>113.7</v>
       </c>
+      <c r="DF194">
+        <v>104.5</v>
+      </c>
+      <c r="DG194">
+        <v>102.1</v>
+      </c>
+      <c r="DH194">
+        <v>117.5</v>
+      </c>
     </row>
-    <row r="195" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>387</v>
       </c>
@@ -65894,8 +67675,17 @@
       <c r="DE195">
         <v>109.5</v>
       </c>
+      <c r="DF195">
+        <v>106.9</v>
+      </c>
+      <c r="DG195">
+        <v>104.6</v>
+      </c>
+      <c r="DH195">
+        <v>106.4</v>
+      </c>
     </row>
-    <row r="196" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -66223,8 +68013,17 @@
       <c r="DE196">
         <v>116.3</v>
       </c>
+      <c r="DF196">
+        <v>113.5</v>
+      </c>
+      <c r="DG196">
+        <v>113.3</v>
+      </c>
+      <c r="DH196">
+        <v>115.4</v>
+      </c>
     </row>
-    <row r="197" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>391</v>
       </c>
@@ -66552,8 +68351,17 @@
       <c r="DE197">
         <v>108.8</v>
       </c>
+      <c r="DF197">
+        <v>110</v>
+      </c>
+      <c r="DG197">
+        <v>105.8</v>
+      </c>
+      <c r="DH197">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="198" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -66881,8 +68689,17 @@
       <c r="DE198">
         <v>109.6</v>
       </c>
+      <c r="DF198">
+        <v>105.7</v>
+      </c>
+      <c r="DG198">
+        <v>105.4</v>
+      </c>
+      <c r="DH198">
+        <v>114.5</v>
+      </c>
     </row>
-    <row r="199" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>395</v>
       </c>
@@ -67210,8 +69027,17 @@
       <c r="DE199">
         <v>74.8</v>
       </c>
+      <c r="DF199">
+        <v>69.8</v>
+      </c>
+      <c r="DG199">
+        <v>71.3</v>
+      </c>
+      <c r="DH199">
+        <v>77</v>
+      </c>
     </row>
-    <row r="200" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>397</v>
       </c>
@@ -67539,8 +69365,17 @@
       <c r="DE200">
         <v>99.9</v>
       </c>
+      <c r="DF200">
+        <v>99.8</v>
+      </c>
+      <c r="DG200">
+        <v>99.8</v>
+      </c>
+      <c r="DH200">
+        <v>99.9</v>
+      </c>
     </row>
-    <row r="201" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -67868,8 +69703,17 @@
       <c r="DE201">
         <v>106.3</v>
       </c>
+      <c r="DF201">
+        <v>106.4</v>
+      </c>
+      <c r="DG201">
+        <v>106.6</v>
+      </c>
+      <c r="DH201">
+        <v>106.7</v>
+      </c>
     </row>
-    <row r="202" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -68197,8 +70041,17 @@
       <c r="DE202">
         <v>95.4</v>
       </c>
+      <c r="DF202">
+        <v>95.3</v>
+      </c>
+      <c r="DG202">
+        <v>95.2</v>
+      </c>
+      <c r="DH202">
+        <v>95.2</v>
+      </c>
     </row>
-    <row r="203" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>403</v>
       </c>
@@ -68521,13 +70374,22 @@
         <v>101.8</v>
       </c>
       <c r="DD203">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="DE203">
-        <v>101.9</v>
+        <v>101.6</v>
+      </c>
+      <c r="DF203">
+        <v>101.7</v>
+      </c>
+      <c r="DG203">
+        <v>101.7</v>
+      </c>
+      <c r="DH203">
+        <v>101.7</v>
       </c>
     </row>
-    <row r="204" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -68853,10 +70715,19 @@
         <v>109.9</v>
       </c>
       <c r="DE204">
-        <v>106</v>
+        <v>108.3</v>
+      </c>
+      <c r="DF204">
+        <v>111.3</v>
+      </c>
+      <c r="DG204">
+        <v>110.3</v>
+      </c>
+      <c r="DH204">
+        <v>107.7</v>
       </c>
     </row>
-    <row r="205" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>407</v>
       </c>
@@ -69182,10 +71053,19 @@
         <v>114.6</v>
       </c>
       <c r="DE205">
-        <v>111</v>
+        <v>113.9</v>
+      </c>
+      <c r="DF205">
+        <v>115.1</v>
+      </c>
+      <c r="DG205">
+        <v>114.8</v>
+      </c>
+      <c r="DH205">
+        <v>110.9</v>
       </c>
     </row>
-    <row r="206" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>409</v>
       </c>
@@ -69511,10 +71391,19 @@
         <v>113.6</v>
       </c>
       <c r="DE206">
-        <v>110.4</v>
+        <v>113.6</v>
+      </c>
+      <c r="DF206">
+        <v>114.1</v>
+      </c>
+      <c r="DG206">
+        <v>111.7</v>
+      </c>
+      <c r="DH206">
+        <v>111.3</v>
       </c>
     </row>
-    <row r="207" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>411</v>
       </c>
@@ -69842,8 +71731,17 @@
       <c r="DE207">
         <v>117.1</v>
       </c>
+      <c r="DF207">
+        <v>118.2</v>
+      </c>
+      <c r="DG207">
+        <v>117.1</v>
+      </c>
+      <c r="DH207">
+        <v>116.2</v>
+      </c>
     </row>
-    <row r="208" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>413</v>
       </c>
@@ -70169,10 +72067,19 @@
         <v>101</v>
       </c>
       <c r="DE208">
-        <v>103.6</v>
+        <v>108.9</v>
+      </c>
+      <c r="DF208">
+        <v>114.6</v>
+      </c>
+      <c r="DG208">
+        <v>109.5</v>
+      </c>
+      <c r="DH208">
+        <v>110</v>
       </c>
     </row>
-    <row r="209" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>415</v>
       </c>
@@ -70498,10 +72405,19 @@
         <v>98.3</v>
       </c>
       <c r="DE209">
-        <v>97.6</v>
+        <v>98.6</v>
+      </c>
+      <c r="DF209">
+        <v>99.2</v>
+      </c>
+      <c r="DG209">
+        <v>96.7</v>
+      </c>
+      <c r="DH209">
+        <v>99.4</v>
       </c>
     </row>
-    <row r="210" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>417</v>
       </c>
@@ -70827,10 +72743,19 @@
         <v>70.599999999999994</v>
       </c>
       <c r="DE210">
-        <v>77.900000000000006</v>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="DF210">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="DG210">
+        <v>83.7</v>
+      </c>
+      <c r="DH210">
+        <v>78.7</v>
       </c>
     </row>
-    <row r="211" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -71156,10 +73081,19 @@
         <v>52.7</v>
       </c>
       <c r="DE211">
-        <v>74.400000000000006</v>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="DF211">
+        <v>84.5</v>
+      </c>
+      <c r="DG211">
+        <v>94.9</v>
+      </c>
+      <c r="DH211">
+        <v>78.3</v>
       </c>
     </row>
-    <row r="212" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -71485,10 +73419,19 @@
         <v>34.9</v>
       </c>
       <c r="DE212">
-        <v>51.8</v>
+        <v>53.5</v>
+      </c>
+      <c r="DF212">
+        <v>68.5</v>
+      </c>
+      <c r="DG212">
+        <v>76.3</v>
+      </c>
+      <c r="DH212">
+        <v>57.4</v>
       </c>
     </row>
-    <row r="213" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>423</v>
       </c>
@@ -71814,10 +73757,19 @@
         <v>59.8</v>
       </c>
       <c r="DE213">
-        <v>82.1</v>
+        <v>77.7</v>
+      </c>
+      <c r="DF213">
+        <v>90.5</v>
+      </c>
+      <c r="DG213">
+        <v>102</v>
+      </c>
+      <c r="DH213">
+        <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>425</v>
       </c>
@@ -72143,10 +74095,19 @@
         <v>59.3</v>
       </c>
       <c r="DE214">
-        <v>74.900000000000006</v>
+        <v>74.2</v>
+      </c>
+      <c r="DF214">
+        <v>79.8</v>
+      </c>
+      <c r="DG214">
+        <v>79</v>
+      </c>
+      <c r="DH214">
+        <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>427</v>
       </c>
@@ -72474,8 +74435,17 @@
       <c r="DE215">
         <v>77.8</v>
       </c>
+      <c r="DF215">
+        <v>85.8</v>
+      </c>
+      <c r="DG215">
+        <v>87.8</v>
+      </c>
+      <c r="DH215">
+        <v>74.599999999999994</v>
+      </c>
     </row>
-    <row r="216" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -72803,8 +74773,17 @@
       <c r="DE216">
         <v>35.299999999999997</v>
       </c>
+      <c r="DF216">
+        <v>48</v>
+      </c>
+      <c r="DG216">
+        <v>47.2</v>
+      </c>
+      <c r="DH216">
+        <v>33.200000000000003</v>
+      </c>
     </row>
-    <row r="217" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -73132,8 +75111,17 @@
       <c r="DE217">
         <v>75.8</v>
       </c>
+      <c r="DF217">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="DG217">
+        <v>84.2</v>
+      </c>
+      <c r="DH217">
+        <v>77.7</v>
+      </c>
     </row>
-    <row r="218" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -73461,8 +75449,17 @@
       <c r="DE218">
         <v>118.6</v>
       </c>
+      <c r="DF218">
+        <v>118.9</v>
+      </c>
+      <c r="DG218">
+        <v>120.3</v>
+      </c>
+      <c r="DH218">
+        <v>117.7</v>
+      </c>
     </row>
-    <row r="219" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>435</v>
       </c>
@@ -73788,10 +75785,19 @@
         <v>89.2</v>
       </c>
       <c r="DE219">
-        <v>96.9</v>
+        <v>92.8</v>
+      </c>
+      <c r="DF219">
+        <v>90.5</v>
+      </c>
+      <c r="DG219">
+        <v>91.8</v>
+      </c>
+      <c r="DH219">
+        <v>100.9</v>
       </c>
     </row>
-    <row r="220" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -74117,10 +76123,19 @@
         <v>78.599999999999994</v>
       </c>
       <c r="DE220">
-        <v>84.4</v>
+        <v>83.8</v>
+      </c>
+      <c r="DF220">
+        <v>90.4</v>
+      </c>
+      <c r="DG220">
+        <v>90.8</v>
+      </c>
+      <c r="DH220">
+        <v>79.5</v>
       </c>
     </row>
-    <row r="221" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>439</v>
       </c>
@@ -74446,10 +76461,19 @@
         <v>53.5</v>
       </c>
       <c r="DE221">
-        <v>68.2</v>
+        <v>66.3</v>
+      </c>
+      <c r="DF221">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="DG221">
+        <v>82.9</v>
+      </c>
+      <c r="DH221">
+        <v>68.3</v>
       </c>
     </row>
-    <row r="222" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -74777,8 +76801,17 @@
       <c r="DE222">
         <v>53.2</v>
       </c>
+      <c r="DF222">
+        <v>57.7</v>
+      </c>
+      <c r="DG222">
+        <v>59.7</v>
+      </c>
+      <c r="DH222">
+        <v>47</v>
+      </c>
     </row>
-    <row r="223" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>443</v>
       </c>
@@ -75104,10 +77137,19 @@
         <v>54</v>
       </c>
       <c r="DE223">
-        <v>73.7</v>
+        <v>70.8</v>
+      </c>
+      <c r="DF223">
+        <v>83.5</v>
+      </c>
+      <c r="DG223">
+        <v>93</v>
+      </c>
+      <c r="DH223">
+        <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="224" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>445</v>
       </c>
@@ -75435,8 +77477,17 @@
       <c r="DE224">
         <v>107.5</v>
       </c>
+      <c r="DF224">
+        <v>97.3</v>
+      </c>
+      <c r="DG224">
+        <v>90.2</v>
+      </c>
+      <c r="DH224">
+        <v>96.9</v>
+      </c>
     </row>
-    <row r="225" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -75764,8 +77815,17 @@
       <c r="DE225">
         <v>85.3</v>
       </c>
+      <c r="DF225">
+        <v>93.8</v>
+      </c>
+      <c r="DG225">
+        <v>93.1</v>
+      </c>
+      <c r="DH225">
+        <v>80.8</v>
+      </c>
     </row>
-    <row r="226" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -76093,8 +78153,17 @@
       <c r="DE226">
         <v>66.7</v>
       </c>
+      <c r="DF226">
+        <v>71.7</v>
+      </c>
+      <c r="DG226">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="DH226">
+        <v>57.7</v>
+      </c>
     </row>
-    <row r="227" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>451</v>
       </c>
@@ -76422,8 +78491,17 @@
       <c r="DE227">
         <v>115.4</v>
       </c>
+      <c r="DF227">
+        <v>120.5</v>
+      </c>
+      <c r="DG227">
+        <v>107.1</v>
+      </c>
+      <c r="DH227">
+        <v>111.9</v>
+      </c>
     </row>
-    <row r="228" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -76749,10 +78827,19 @@
         <v>56.9</v>
       </c>
       <c r="DE228">
-        <v>66.400000000000006</v>
+        <v>66.099999999999994</v>
+      </c>
+      <c r="DF228">
+        <v>67.5</v>
+      </c>
+      <c r="DG228">
+        <v>74.3</v>
+      </c>
+      <c r="DH228">
+        <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="229" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>455</v>
       </c>
@@ -77078,10 +79165,19 @@
         <v>24.4</v>
       </c>
       <c r="DE229">
-        <v>30.6</v>
+        <v>29.8</v>
+      </c>
+      <c r="DF229">
+        <v>41</v>
+      </c>
+      <c r="DG229">
+        <v>52.1</v>
+      </c>
+      <c r="DH229">
+        <v>31.9</v>
       </c>
     </row>
-    <row r="230" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -77407,10 +79503,19 @@
         <v>32.299999999999997</v>
       </c>
       <c r="DE230">
-        <v>43.3</v>
+        <v>42</v>
+      </c>
+      <c r="DF230">
+        <v>57.1</v>
+      </c>
+      <c r="DG230">
+        <v>74.7</v>
+      </c>
+      <c r="DH230">
+        <v>44.9</v>
       </c>
     </row>
-    <row r="231" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -77736,10 +79841,19 @@
         <v>3.2</v>
       </c>
       <c r="DE231">
-        <v>3.1</v>
+        <v>3.8</v>
+      </c>
+      <c r="DF231">
+        <v>4</v>
+      </c>
+      <c r="DG231">
+        <v>3.6</v>
+      </c>
+      <c r="DH231">
+        <v>1.9</v>
       </c>
     </row>
-    <row r="232" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -78065,10 +80179,19 @@
         <v>33.6</v>
       </c>
       <c r="DE232">
-        <v>10.199999999999999</v>
+        <v>8.1</v>
+      </c>
+      <c r="DF232">
+        <v>21.9</v>
+      </c>
+      <c r="DG232">
+        <v>17.3</v>
+      </c>
+      <c r="DH232">
+        <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -78394,10 +80517,19 @@
         <v>83.9</v>
       </c>
       <c r="DE233">
-        <v>85.5</v>
+        <v>85.4</v>
+      </c>
+      <c r="DF233">
+        <v>86.4</v>
+      </c>
+      <c r="DG233">
+        <v>88.7</v>
+      </c>
+      <c r="DH233">
+        <v>92.7</v>
       </c>
     </row>
-    <row r="234" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -78723,10 +80855,19 @@
         <v>113.8</v>
       </c>
       <c r="DE234">
-        <v>106.9</v>
+        <v>107</v>
+      </c>
+      <c r="DF234">
+        <v>109.1</v>
+      </c>
+      <c r="DG234">
+        <v>107.2</v>
+      </c>
+      <c r="DH234">
+        <v>111</v>
       </c>
     </row>
-    <row r="235" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -79052,10 +81193,19 @@
         <v>42.8</v>
       </c>
       <c r="DE235">
-        <v>53.4</v>
+        <v>53.1</v>
+      </c>
+      <c r="DF235">
+        <v>60.2</v>
+      </c>
+      <c r="DG235">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="DH235">
+        <v>53.2</v>
       </c>
     </row>
-    <row r="236" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -79383,8 +81533,17 @@
       <c r="DE236">
         <v>134.4</v>
       </c>
+      <c r="DF236">
+        <v>92.2</v>
+      </c>
+      <c r="DG236">
+        <v>65.2</v>
+      </c>
+      <c r="DH236">
+        <v>81.400000000000006</v>
+      </c>
     </row>
-    <row r="237" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>471</v>
       </c>
@@ -79712,8 +81871,17 @@
       <c r="DE237">
         <v>78.099999999999994</v>
       </c>
+      <c r="DF237">
+        <v>81.7</v>
+      </c>
+      <c r="DG237">
+        <v>85.1</v>
+      </c>
+      <c r="DH237">
+        <v>81.900000000000006</v>
+      </c>
     </row>
-    <row r="238" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>473</v>
       </c>
@@ -80041,8 +82209,17 @@
       <c r="DE238">
         <v>69</v>
       </c>
+      <c r="DF238">
+        <v>72.8</v>
+      </c>
+      <c r="DG238">
+        <v>73</v>
+      </c>
+      <c r="DH238">
+        <v>91</v>
+      </c>
     </row>
-    <row r="239" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>475</v>
       </c>
@@ -80370,8 +82547,17 @@
       <c r="DE239">
         <v>52</v>
       </c>
+      <c r="DF239">
+        <v>45.6</v>
+      </c>
+      <c r="DG239">
+        <v>34.9</v>
+      </c>
+      <c r="DH239">
+        <v>66.599999999999994</v>
+      </c>
     </row>
-    <row r="240" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>477</v>
       </c>
@@ -80699,8 +82885,17 @@
       <c r="DE240">
         <v>38.1</v>
       </c>
+      <c r="DF240">
+        <v>28.7</v>
+      </c>
+      <c r="DG240">
+        <v>24.8</v>
+      </c>
+      <c r="DH240">
+        <v>64.400000000000006</v>
+      </c>
     </row>
-    <row r="241" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -81028,8 +83223,17 @@
       <c r="DE241">
         <v>91.6</v>
       </c>
+      <c r="DF241">
+        <v>68.5</v>
+      </c>
+      <c r="DG241">
+        <v>77.3</v>
+      </c>
+      <c r="DH241">
+        <v>40.299999999999997</v>
+      </c>
     </row>
-    <row r="242" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -81357,8 +83561,17 @@
       <c r="DE242">
         <v>0</v>
       </c>
+      <c r="DF242">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="DG242">
+        <v>0</v>
+      </c>
+      <c r="DH242">
+        <v>86.8</v>
+      </c>
     </row>
-    <row r="243" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -81686,8 +83899,17 @@
       <c r="DE243">
         <v>28.8</v>
       </c>
+      <c r="DF243">
+        <v>46.3</v>
+      </c>
+      <c r="DG243">
+        <v>57.8</v>
+      </c>
+      <c r="DH243">
+        <v>30.9</v>
+      </c>
     </row>
-    <row r="244" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -82015,8 +84237,17 @@
       <c r="DE244">
         <v>63.2</v>
       </c>
+      <c r="DF244">
+        <v>15</v>
+      </c>
+      <c r="DG244">
+        <v>0</v>
+      </c>
+      <c r="DH244">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -82344,8 +84575,17 @@
       <c r="DE245">
         <v>58.7</v>
       </c>
+      <c r="DF245">
+        <v>93.3</v>
+      </c>
+      <c r="DG245">
+        <v>28.1</v>
+      </c>
+      <c r="DH245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>489</v>
       </c>
@@ -82673,8 +84913,17 @@
       <c r="DE246">
         <v>52.4</v>
       </c>
+      <c r="DF246">
+        <v>50.5</v>
+      </c>
+      <c r="DG246">
+        <v>11.3</v>
+      </c>
+      <c r="DH246">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>491</v>
       </c>
@@ -83002,8 +85251,17 @@
       <c r="DE247">
         <v>179.5</v>
       </c>
+      <c r="DF247">
+        <v>126.1</v>
+      </c>
+      <c r="DG247">
+        <v>184.5</v>
+      </c>
+      <c r="DH247">
+        <v>109.1</v>
+      </c>
     </row>
-    <row r="248" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>493</v>
       </c>
@@ -83331,8 +85589,17 @@
       <c r="DE248">
         <v>150.19999999999999</v>
       </c>
+      <c r="DF248">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="DG248">
+        <v>166.7</v>
+      </c>
+      <c r="DH248">
+        <v>152</v>
+      </c>
     </row>
-    <row r="249" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>495</v>
       </c>
@@ -83660,8 +85927,17 @@
       <c r="DE249">
         <v>158.1</v>
       </c>
+      <c r="DF249">
+        <v>157.9</v>
+      </c>
+      <c r="DG249">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="DH249">
+        <v>166.9</v>
+      </c>
     </row>
-    <row r="250" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>497</v>
       </c>
@@ -83989,8 +86265,17 @@
       <c r="DE250">
         <v>132.9</v>
       </c>
+      <c r="DF250">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="DG250">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="DH250">
+        <v>130.69999999999999</v>
+      </c>
     </row>
-    <row r="251" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>499</v>
       </c>
@@ -84318,8 +86603,17 @@
       <c r="DE251">
         <v>141.6</v>
       </c>
+      <c r="DF251">
+        <v>165.4</v>
+      </c>
+      <c r="DG251">
+        <v>166</v>
+      </c>
+      <c r="DH251">
+        <v>169.9</v>
+      </c>
     </row>
-    <row r="252" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>501</v>
       </c>
@@ -84647,8 +86941,17 @@
       <c r="DE252">
         <v>230.4</v>
       </c>
+      <c r="DF252">
+        <v>232</v>
+      </c>
+      <c r="DG252">
+        <v>235.3</v>
+      </c>
+      <c r="DH252">
+        <v>243.6</v>
+      </c>
     </row>
-    <row r="253" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -84976,8 +87279,17 @@
       <c r="DE253">
         <v>96.4</v>
       </c>
+      <c r="DF253">
+        <v>95.9</v>
+      </c>
+      <c r="DG253">
+        <v>97.3</v>
+      </c>
+      <c r="DH253">
+        <v>93.4</v>
+      </c>
     </row>
-    <row r="254" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>505</v>
       </c>
@@ -85305,8 +87617,17 @@
       <c r="DE254">
         <v>102.8</v>
       </c>
+      <c r="DF254">
+        <v>100.7</v>
+      </c>
+      <c r="DG254">
+        <v>104.1</v>
+      </c>
+      <c r="DH254">
+        <v>105.2</v>
+      </c>
     </row>
-    <row r="255" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -85632,10 +87953,19 @@
         <v>116.5</v>
       </c>
       <c r="DE255">
-        <v>111.6</v>
+        <v>111.5</v>
+      </c>
+      <c r="DF255">
+        <v>112.9</v>
+      </c>
+      <c r="DG255">
+        <v>112.3</v>
+      </c>
+      <c r="DH255">
+        <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>509</v>
       </c>
@@ -85963,8 +88293,17 @@
       <c r="DE256">
         <v>56.7</v>
       </c>
+      <c r="DF256">
+        <v>61.2</v>
+      </c>
+      <c r="DG256">
+        <v>60.5</v>
+      </c>
+      <c r="DH256">
+        <v>56.4</v>
+      </c>
     </row>
-    <row r="257" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>511</v>
       </c>
@@ -86292,8 +88631,17 @@
       <c r="DE257">
         <v>83.5</v>
       </c>
+      <c r="DF257">
+        <v>84.6</v>
+      </c>
+      <c r="DG257">
+        <v>85.9</v>
+      </c>
+      <c r="DH257">
+        <v>83.4</v>
+      </c>
     </row>
-    <row r="258" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>513</v>
       </c>
@@ -86621,8 +88969,17 @@
       <c r="DE258">
         <v>48</v>
       </c>
+      <c r="DF258">
+        <v>68.7</v>
+      </c>
+      <c r="DG258">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="DH258">
+        <v>63.8</v>
+      </c>
     </row>
-    <row r="259" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>515</v>
       </c>
@@ -86950,8 +89307,17 @@
       <c r="DE259">
         <v>60.7</v>
       </c>
+      <c r="DF259">
+        <v>60.4</v>
+      </c>
+      <c r="DG259">
+        <v>61.8</v>
+      </c>
+      <c r="DH259">
+        <v>58.9</v>
+      </c>
     </row>
-    <row r="260" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>517</v>
       </c>
@@ -87279,8 +89645,17 @@
       <c r="DE260">
         <v>98.6</v>
       </c>
+      <c r="DF260">
+        <v>98.3</v>
+      </c>
+      <c r="DG260">
+        <v>97.1</v>
+      </c>
+      <c r="DH260">
+        <v>96</v>
+      </c>
     </row>
-    <row r="261" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>519</v>
       </c>
@@ -87608,8 +89983,17 @@
       <c r="DE261">
         <v>99.6</v>
       </c>
+      <c r="DF261">
+        <v>99.1</v>
+      </c>
+      <c r="DG261">
+        <v>97.9</v>
+      </c>
+      <c r="DH261">
+        <v>96.4</v>
+      </c>
     </row>
-    <row r="262" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>521</v>
       </c>
@@ -87937,8 +90321,17 @@
       <c r="DE262">
         <v>94.2</v>
       </c>
+      <c r="DF262">
+        <v>94</v>
+      </c>
+      <c r="DG262">
+        <v>93</v>
+      </c>
+      <c r="DH262">
+        <v>91.7</v>
+      </c>
     </row>
-    <row r="263" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>523</v>
       </c>
@@ -88266,8 +90659,17 @@
       <c r="DE263">
         <v>141.9</v>
       </c>
+      <c r="DF263">
+        <v>121.9</v>
+      </c>
+      <c r="DG263">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="DH263">
+        <v>97.7</v>
+      </c>
     </row>
-    <row r="264" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>525</v>
       </c>
@@ -88595,8 +90997,17 @@
       <c r="DE264">
         <v>79.3</v>
       </c>
+      <c r="DF264">
+        <v>83.7</v>
+      </c>
+      <c r="DG264">
+        <v>79.2</v>
+      </c>
+      <c r="DH264">
+        <v>91.4</v>
+      </c>
     </row>
-    <row r="265" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>527</v>
       </c>
@@ -88922,10 +91333,19 @@
         <v>96.3</v>
       </c>
       <c r="DE265">
-        <v>97.5</v>
+        <v>97.8</v>
+      </c>
+      <c r="DF265">
+        <v>98.4</v>
+      </c>
+      <c r="DG265">
+        <v>98.4</v>
+      </c>
+      <c r="DH265">
+        <v>97.6</v>
       </c>
     </row>
-    <row r="266" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -89251,10 +91671,19 @@
         <v>96.3</v>
       </c>
       <c r="DE266">
-        <v>99.9</v>
+        <v>100.1</v>
+      </c>
+      <c r="DF266">
+        <v>100</v>
+      </c>
+      <c r="DG266">
+        <v>100.8</v>
+      </c>
+      <c r="DH266">
+        <v>104.1</v>
       </c>
     </row>
-    <row r="267" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>529</v>
       </c>
@@ -89580,10 +92009,19 @@
         <v>100.8</v>
       </c>
       <c r="DE267">
+        <v>104.8</v>
+      </c>
+      <c r="DF267">
+        <v>103.5</v>
+      </c>
+      <c r="DG267">
+        <v>105.1</v>
+      </c>
+      <c r="DH267">
         <v>105.3</v>
       </c>
     </row>
-    <row r="268" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>530</v>
       </c>
@@ -89909,10 +92347,19 @@
         <v>90.7</v>
       </c>
       <c r="DE268">
-        <v>92.1</v>
+        <v>92.3</v>
+      </c>
+      <c r="DF268">
+        <v>93.8</v>
+      </c>
+      <c r="DG268">
+        <v>94.1</v>
+      </c>
+      <c r="DH268">
+        <v>94.8</v>
       </c>
     </row>
-    <row r="269" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>531</v>
       </c>
@@ -90238,10 +92685,19 @@
         <v>94.5</v>
       </c>
       <c r="DE269">
-        <v>94.6</v>
+        <v>94.5</v>
+      </c>
+      <c r="DF269">
+        <v>95</v>
+      </c>
+      <c r="DG269">
+        <v>94.1</v>
+      </c>
+      <c r="DH269">
+        <v>93.4</v>
       </c>
     </row>
-    <row r="270" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>533</v>
       </c>
@@ -90564,13 +93020,22 @@
         <v>103.7</v>
       </c>
       <c r="DD270">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="DE270">
-        <v>105.6</v>
+        <v>107.3</v>
+      </c>
+      <c r="DF270">
+        <v>106.3</v>
+      </c>
+      <c r="DG270">
+        <v>105.2</v>
+      </c>
+      <c r="DH270">
+        <v>107.5</v>
       </c>
     </row>
-    <row r="271" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -90898,8 +93363,17 @@
       <c r="DE271">
         <v>101.3</v>
       </c>
+      <c r="DF271">
+        <v>102.2</v>
+      </c>
+      <c r="DG271">
+        <v>100.7</v>
+      </c>
+      <c r="DH271">
+        <v>101.4</v>
+      </c>
     </row>
-    <row r="272" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -91225,10 +93699,19 @@
         <v>103.6</v>
       </c>
       <c r="DE272">
-        <v>102.9</v>
+        <v>102.8</v>
+      </c>
+      <c r="DF272">
+        <v>99.9</v>
+      </c>
+      <c r="DG272">
+        <v>101.6</v>
+      </c>
+      <c r="DH272">
+        <v>97.1</v>
       </c>
     </row>
-    <row r="273" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>538</v>
       </c>
@@ -91554,10 +94037,19 @@
         <v>58.5</v>
       </c>
       <c r="DE273">
-        <v>74.8</v>
+        <v>73.8</v>
+      </c>
+      <c r="DF273">
+        <v>80.8</v>
+      </c>
+      <c r="DG273">
+        <v>82.1</v>
+      </c>
+      <c r="DH273">
+        <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="274" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -91883,10 +94375,19 @@
         <v>72.400000000000006</v>
       </c>
       <c r="DE274">
-        <v>76.5</v>
+        <v>76.3</v>
+      </c>
+      <c r="DF274">
+        <v>79.5</v>
+      </c>
+      <c r="DG274">
+        <v>84.4</v>
+      </c>
+      <c r="DH274">
+        <v>80.2</v>
       </c>
     </row>
-    <row r="275" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -92214,8 +94715,17 @@
       <c r="DE275">
         <v>98.6</v>
       </c>
+      <c r="DF275">
+        <v>98.3</v>
+      </c>
+      <c r="DG275">
+        <v>97.1</v>
+      </c>
+      <c r="DH275">
+        <v>96</v>
+      </c>
     </row>
-    <row r="276" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>543</v>
       </c>
@@ -92541,10 +95051,19 @@
         <v>109.9</v>
       </c>
       <c r="DE276">
-        <v>106</v>
+        <v>108.3</v>
+      </c>
+      <c r="DF276">
+        <v>111.3</v>
+      </c>
+      <c r="DG276">
+        <v>110.3</v>
+      </c>
+      <c r="DH276">
+        <v>107.7</v>
       </c>
     </row>
-    <row r="277" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>544</v>
       </c>
@@ -92872,8 +95391,17 @@
       <c r="DE277">
         <v>83.5</v>
       </c>
+      <c r="DF277">
+        <v>84.9</v>
+      </c>
+      <c r="DG277">
+        <v>88</v>
+      </c>
+      <c r="DH277">
+        <v>93.8</v>
+      </c>
     </row>
-    <row r="278" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>545</v>
       </c>
@@ -93199,10 +95727,19 @@
         <v>100</v>
       </c>
       <c r="DE278">
-        <v>99.8</v>
+        <v>99.4</v>
+      </c>
+      <c r="DF278">
+        <v>99.7</v>
+      </c>
+      <c r="DG278">
+        <v>99.1</v>
+      </c>
+      <c r="DH278">
+        <v>100.4</v>
       </c>
     </row>
-    <row r="279" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>547</v>
       </c>
@@ -93528,10 +96065,19 @@
         <v>91.5</v>
       </c>
       <c r="DE279">
-        <v>92.7</v>
+        <v>92.4</v>
+      </c>
+      <c r="DF279">
+        <v>93</v>
+      </c>
+      <c r="DG279">
+        <v>94.5</v>
+      </c>
+      <c r="DH279">
+        <v>92.8</v>
       </c>
     </row>
-    <row r="280" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>549</v>
       </c>
@@ -93857,10 +96403,19 @@
         <v>76.2</v>
       </c>
       <c r="DE280">
-        <v>78.400000000000006</v>
+        <v>78.3</v>
+      </c>
+      <c r="DF280">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="DG280">
+        <v>85</v>
+      </c>
+      <c r="DH280">
+        <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="281" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>551</v>
       </c>
@@ -94186,10 +96741,19 @@
         <v>100.6</v>
       </c>
       <c r="DE281">
-        <v>99.9</v>
+        <v>99.5</v>
+      </c>
+      <c r="DF281">
+        <v>99.8</v>
+      </c>
+      <c r="DG281">
+        <v>100.5</v>
+      </c>
+      <c r="DH281">
+        <v>98.8</v>
       </c>
     </row>
-    <row r="282" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>553</v>
       </c>
@@ -94515,10 +97079,19 @@
         <v>93.9</v>
       </c>
       <c r="DE282">
-        <v>95.8</v>
+        <v>96.4</v>
+      </c>
+      <c r="DF282">
+        <v>98.2</v>
+      </c>
+      <c r="DG282">
+        <v>98.3</v>
+      </c>
+      <c r="DH282">
+        <v>96</v>
       </c>
     </row>
-    <row r="283" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>555</v>
       </c>
@@ -94844,10 +97417,19 @@
         <v>102</v>
       </c>
       <c r="DE283">
-        <v>101.7</v>
+        <v>103</v>
+      </c>
+      <c r="DF283">
+        <v>103.2</v>
+      </c>
+      <c r="DG283">
+        <v>101.8</v>
+      </c>
+      <c r="DH283">
+        <v>101.4</v>
       </c>
     </row>
-    <row r="284" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>557</v>
       </c>
@@ -95175,8 +97757,17 @@
       <c r="DE284">
         <v>88.7</v>
       </c>
+      <c r="DF284">
+        <v>92.3</v>
+      </c>
+      <c r="DG284">
+        <v>93.7</v>
+      </c>
+      <c r="DH284">
+        <v>88.6</v>
+      </c>
     </row>
-    <row r="285" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>559</v>
       </c>
@@ -95504,8 +98095,17 @@
       <c r="DE285">
         <v>98.1</v>
       </c>
+      <c r="DF285">
+        <v>98.4</v>
+      </c>
+      <c r="DG285">
+        <v>98.5</v>
+      </c>
+      <c r="DH285">
+        <v>100.3</v>
+      </c>
     </row>
-    <row r="286" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>561</v>
       </c>
@@ -95825,16 +98425,25 @@
         <v>96.9</v>
       </c>
       <c r="DC286">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DD286">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="DE286">
-        <v>93.5</v>
+        <v>93.6</v>
+      </c>
+      <c r="DF286">
+        <v>94.4</v>
+      </c>
+      <c r="DG286">
+        <v>93.9</v>
+      </c>
+      <c r="DH286">
+        <v>98.3</v>
       </c>
     </row>
-    <row r="287" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>563</v>
       </c>
@@ -96162,8 +98771,17 @@
       <c r="DE287">
         <v>100.2</v>
       </c>
+      <c r="DF287">
+        <v>100.4</v>
+      </c>
+      <c r="DG287">
+        <v>100.5</v>
+      </c>
+      <c r="DH287">
+        <v>101.2</v>
+      </c>
     </row>
-    <row r="288" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>565</v>
       </c>
@@ -96489,10 +99107,19 @@
         <v>98.2</v>
       </c>
       <c r="DE288">
-        <v>96.9</v>
+        <v>97.6</v>
+      </c>
+      <c r="DF288">
+        <v>97.9</v>
+      </c>
+      <c r="DG288">
+        <v>98.6</v>
+      </c>
+      <c r="DH288">
+        <v>99.4</v>
       </c>
     </row>
-    <row r="289" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>567</v>
       </c>
@@ -96818,10 +99445,19 @@
         <v>64.2</v>
       </c>
       <c r="DE289">
-        <v>74.400000000000006</v>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="DF289">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="DG289">
+        <v>86.2</v>
+      </c>
+      <c r="DH289">
+        <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="290" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>569</v>
       </c>
@@ -97147,7 +99783,16 @@
         <v>96.7</v>
       </c>
       <c r="DE290">
-        <v>98.5</v>
+        <v>98.9</v>
+      </c>
+      <c r="DF290">
+        <v>99.6</v>
+      </c>
+      <c r="DG290">
+        <v>99.8</v>
+      </c>
+      <c r="DH290">
+        <v>99.3</v>
       </c>
     </row>
   </sheetData>
